--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,25 +626,25 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9968045737909879</v>
+      </c>
+      <c r="D3">
+        <v>0.9761819341352399</v>
+      </c>
+      <c r="E3">
         <v>1.034507640599115</v>
       </c>
-      <c r="D3">
+      <c r="F3">
+        <v>1.011317757970617</v>
+      </c>
+      <c r="G3">
         <v>0.9621776914201268</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>1.003981419282098</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>1.034507640599115</v>
-      </c>
-      <c r="G3">
-        <v>0.9968045737909879</v>
-      </c>
-      <c r="H3">
-        <v>0.9761819341352401</v>
-      </c>
-      <c r="I3">
-        <v>1.011317757970617</v>
       </c>
       <c r="J3">
         <v>0.9621776914201268</v>
@@ -710,7 +662,7 @@
         <v>0.9830795553511122</v>
       </c>
       <c r="O3">
-        <v>0.9807803482791549</v>
+        <v>0.9807803482791547</v>
       </c>
       <c r="P3">
         <v>1.00022225043378</v>
@@ -728,7 +680,7 @@
         <v>0.9974951695330306</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,25 +688,25 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9947849456382666</v>
+      </c>
+      <c r="D4">
+        <v>0.9544368470418514</v>
+      </c>
+      <c r="E4">
         <v>1.065904457492124</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>1.021633333614557</v>
+      </c>
+      <c r="G4">
         <v>0.9258221223941168</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>1.007466558154865</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>1.065904457492124</v>
-      </c>
-      <c r="G4">
-        <v>0.9947849456382669</v>
-      </c>
-      <c r="H4">
-        <v>0.9544368470418514</v>
-      </c>
-      <c r="I4">
-        <v>1.021633333614557</v>
       </c>
       <c r="J4">
         <v>0.9258221223941168</v>
@@ -766,19 +718,19 @@
         <v>1.007466558154865</v>
       </c>
       <c r="M4">
-        <v>0.9666443402744909</v>
+        <v>0.9666443402744908</v>
       </c>
       <c r="N4">
-        <v>0.9666443402744909</v>
+        <v>0.9666443402744908</v>
       </c>
       <c r="O4">
         <v>0.962575175863611</v>
       </c>
       <c r="P4">
-        <v>0.9997310460137019</v>
+        <v>0.9997310460137018</v>
       </c>
       <c r="Q4">
-        <v>0.9997310460137019</v>
+        <v>0.9997310460137018</v>
       </c>
       <c r="R4">
         <v>1.016274398883307</v>
@@ -787,10 +739,10 @@
         <v>1.016274398883307</v>
       </c>
       <c r="T4">
-        <v>0.9950080440559637</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9950080440559633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,25 +750,25 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.993907671353221</v>
+      </c>
+      <c r="D5">
+        <v>0.9125441699988421</v>
+      </c>
+      <c r="E5">
         <v>1.124235184701364</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>1.041187008536568</v>
+      </c>
+      <c r="G5">
         <v>0.8612893443741583</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>1.015535806879807</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>1.124235184701364</v>
-      </c>
-      <c r="G5">
-        <v>0.993907671353221</v>
-      </c>
-      <c r="H5">
-        <v>0.9125441699988421</v>
-      </c>
-      <c r="I5">
-        <v>1.041187008536568</v>
       </c>
       <c r="J5">
         <v>0.8612893443741583</v>
@@ -852,7 +804,7 @@
         <v>0.9914498643073267</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9826482963403386</v>
+      </c>
+      <c r="D6">
+        <v>0.8684044770482082</v>
+      </c>
+      <c r="E6">
         <v>1.187964322308887</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>1.06223651254781</v>
+      </c>
+      <c r="G6">
         <v>0.8022216738521741</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>1.033573696231616</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>1.187964322308887</v>
-      </c>
-      <c r="G6">
-        <v>0.9826482963403386</v>
-      </c>
-      <c r="H6">
-        <v>0.8684044770482082</v>
-      </c>
-      <c r="I6">
-        <v>1.06223651254781</v>
       </c>
       <c r="J6">
         <v>0.8022216738521741</v>
@@ -914,7 +866,7 @@
         <v>0.9895081630548389</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,25 +874,25 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.004352664836402</v>
+      </c>
+      <c r="D7">
+        <v>0.9988155175018748</v>
+      </c>
+      <c r="E7">
         <v>0.999328622440724</v>
       </c>
-      <c r="D7">
+      <c r="F7">
+        <v>1.000221242843203</v>
+      </c>
+      <c r="G7">
         <v>0.9987050047500903</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>1.000711906218698</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>0.999328622440724</v>
-      </c>
-      <c r="G7">
-        <v>1.004352664836402</v>
-      </c>
-      <c r="H7">
-        <v>0.9988155175018748</v>
-      </c>
-      <c r="I7">
-        <v>1.000221242843203</v>
       </c>
       <c r="J7">
         <v>0.9987050047500903</v>
@@ -976,7 +928,7 @@
         <v>1.000355826431832</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,49 +936,49 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9986012312704765</v>
+        <v>1.010418495970393</v>
       </c>
       <c r="D8">
-        <v>0.9964665022589229</v>
+        <v>0.996950060521566</v>
       </c>
       <c r="E8">
+        <v>0.9986012312704768</v>
+      </c>
+      <c r="F8">
+        <v>1.000666471088441</v>
+      </c>
+      <c r="G8">
+        <v>0.9964665022589224</v>
+      </c>
+      <c r="H8">
         <v>1.001831092524203</v>
       </c>
-      <c r="F8">
-        <v>0.9986012312704765</v>
-      </c>
-      <c r="G8">
-        <v>1.010418495970392</v>
-      </c>
-      <c r="H8">
-        <v>0.9969500605215661</v>
-      </c>
       <c r="I8">
-        <v>1.00066647108844</v>
+        <v>0.9986012312704768</v>
       </c>
       <c r="J8">
-        <v>0.9964665022589229</v>
+        <v>0.9964665022589224</v>
       </c>
       <c r="K8">
-        <v>0.9986012312704765</v>
+        <v>0.9986012312704768</v>
       </c>
       <c r="L8">
         <v>1.001831092524203</v>
       </c>
       <c r="M8">
-        <v>0.9991487973915631</v>
+        <v>0.9991487973915629</v>
       </c>
       <c r="N8">
-        <v>0.9991487973915631</v>
+        <v>0.9991487973915629</v>
       </c>
       <c r="O8">
-        <v>0.9984158851015641</v>
+        <v>0.998415885101564</v>
       </c>
       <c r="P8">
         <v>0.9989662753512009</v>
       </c>
       <c r="Q8">
-        <v>0.9989662753512009</v>
+        <v>0.9989662753512007</v>
       </c>
       <c r="R8">
         <v>0.9988750143310198</v>
@@ -1038,7 +990,7 @@
         <v>1.000822308939</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,25 +998,25 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.013123411648214</v>
+      </c>
+      <c r="D9">
+        <v>0.9955149155630064</v>
+      </c>
+      <c r="E9">
         <v>0.9988395332666287</v>
       </c>
-      <c r="D9">
+      <c r="F9">
+        <v>1.001157676741942</v>
+      </c>
+      <c r="G9">
         <v>0.9946349896618402</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>1.002581312563202</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>0.9988395332666287</v>
-      </c>
-      <c r="G9">
-        <v>1.013123411648214</v>
-      </c>
-      <c r="H9">
-        <v>0.9955149155630064</v>
-      </c>
-      <c r="I9">
-        <v>1.001157676741942</v>
       </c>
       <c r="J9">
         <v>0.9946349896618402</v>
@@ -1100,7 +1052,7 @@
         <v>1.000975306574139</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,31 +1060,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9966652047738681</v>
+        <v>1.030150620244445</v>
       </c>
       <c r="D10">
+        <v>0.9905391637916398</v>
+      </c>
+      <c r="E10">
+        <v>0.9966652047738679</v>
+      </c>
+      <c r="F10">
+        <v>1.002187070740782</v>
+      </c>
+      <c r="G10">
         <v>0.9889728057219788</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>1.00548110644225</v>
       </c>
-      <c r="F10">
-        <v>0.9966652047738681</v>
-      </c>
-      <c r="G10">
-        <v>1.030150620244445</v>
-      </c>
-      <c r="H10">
-        <v>0.9905391637916398</v>
-      </c>
       <c r="I10">
-        <v>1.002187070740782</v>
+        <v>0.9966652047738679</v>
       </c>
       <c r="J10">
         <v>0.9889728057219788</v>
       </c>
       <c r="K10">
-        <v>0.9966652047738681</v>
+        <v>0.9966652047738679</v>
       </c>
       <c r="L10">
         <v>1.00548110644225</v>
@@ -1147,22 +1099,22 @@
         <v>0.9949976919852895</v>
       </c>
       <c r="P10">
-        <v>0.9970397056460323</v>
+        <v>0.9970397056460322</v>
       </c>
       <c r="Q10">
         <v>0.9970397056460323</v>
       </c>
       <c r="R10">
-        <v>0.9969460804279913</v>
+        <v>0.9969460804279912</v>
       </c>
       <c r="S10">
-        <v>0.9969460804279913</v>
+        <v>0.9969460804279912</v>
       </c>
       <c r="T10">
         <v>1.002332661952494</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,25 +1122,25 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.046294649386417</v>
+      </c>
+      <c r="D11">
+        <v>0.9838876567903786</v>
+      </c>
+      <c r="E11">
         <v>0.9964566157058424</v>
       </c>
-      <c r="D11">
+      <c r="F11">
+        <v>1.004189357340551</v>
+      </c>
+      <c r="G11">
         <v>0.9806026977869738</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>1.009145096807521</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>0.9964566157058424</v>
-      </c>
-      <c r="G11">
-        <v>1.046294649386417</v>
-      </c>
-      <c r="H11">
-        <v>0.9838876567903784</v>
-      </c>
-      <c r="I11">
-        <v>1.004189357340551</v>
       </c>
       <c r="J11">
         <v>0.9806026977869738</v>
@@ -1206,7 +1158,7 @@
         <v>0.9948738972972473</v>
       </c>
       <c r="O11">
-        <v>0.991211817128291</v>
+        <v>0.9912118171282911</v>
       </c>
       <c r="P11">
         <v>0.9954014701001124</v>
@@ -1221,10 +1173,10 @@
         <v>0.9956652565015448</v>
       </c>
       <c r="T11">
-        <v>1.00342934563628</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.003429345636281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,25 +1184,25 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.391590026413473</v>
+      </c>
+      <c r="D12">
+        <v>1.151266502159159</v>
+      </c>
+      <c r="E12">
         <v>1.306560201704678</v>
       </c>
-      <c r="D12">
+      <c r="F12">
+        <v>0.954542229572208</v>
+      </c>
+      <c r="G12">
         <v>1.01671927385909</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>0.8043992868324136</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>1.306560201704678</v>
-      </c>
-      <c r="G12">
-        <v>0.3915900264134732</v>
-      </c>
-      <c r="H12">
-        <v>1.151266502159159</v>
-      </c>
-      <c r="I12">
-        <v>0.9545422295722082</v>
       </c>
       <c r="J12">
         <v>1.01671927385909</v>
@@ -1283,10 +1235,10 @@
         <v>1.108559741025215</v>
       </c>
       <c r="T12">
-        <v>0.9375129200901702</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9375129200901703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,25 +1246,25 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.10316405772239</v>
+      </c>
+      <c r="D13">
+        <v>1.026463649762425</v>
+      </c>
+      <c r="E13">
         <v>0.8282460588397216</v>
       </c>
-      <c r="D13">
+      <c r="F13">
+        <v>0.9803016238526725</v>
+      </c>
+      <c r="G13">
         <v>1.220092684267637</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>1.045602827429533</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>0.8282460588397216</v>
-      </c>
-      <c r="G13">
-        <v>1.10316405772239</v>
-      </c>
-      <c r="H13">
-        <v>1.026463649762425</v>
-      </c>
-      <c r="I13">
-        <v>0.9803016238526724</v>
       </c>
       <c r="J13">
         <v>1.220092684267637</v>
@@ -1348,7 +1300,7 @@
         <v>1.03397848364573</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,25 +1308,25 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.3916032350935442</v>
+      </c>
+      <c r="D14">
+        <v>1.15140892260306</v>
+      </c>
+      <c r="E14">
         <v>1.30647241442659</v>
       </c>
-      <c r="D14">
+      <c r="F14">
+        <v>0.9547365632262481</v>
+      </c>
+      <c r="G14">
         <v>1.015944378849625</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>0.8045724868653493</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <v>1.30647241442659</v>
-      </c>
-      <c r="G14">
-        <v>0.3916032350935443</v>
-      </c>
-      <c r="H14">
-        <v>1.15140892260306</v>
-      </c>
-      <c r="I14">
-        <v>0.9547365632262481</v>
       </c>
       <c r="J14">
         <v>1.015944378849625</v>
@@ -1410,7 +1362,7 @@
         <v>0.937456333510736</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,25 +1370,25 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.103210607310078</v>
+      </c>
+      <c r="D15">
+        <v>1.02632792105019</v>
+      </c>
+      <c r="E15">
         <v>0.8282660897528031</v>
       </c>
-      <c r="D15">
+      <c r="F15">
+        <v>0.980189335457885</v>
+      </c>
+      <c r="G15">
         <v>1.220618036484302</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>1.045450183156155</v>
       </c>
-      <c r="F15">
+      <c r="I15">
         <v>0.8282660897528031</v>
-      </c>
-      <c r="G15">
-        <v>1.103210607310078</v>
-      </c>
-      <c r="H15">
-        <v>1.02632792105019</v>
-      </c>
-      <c r="I15">
-        <v>0.980189335457885</v>
       </c>
       <c r="J15">
         <v>1.220618036484302</v>
@@ -1472,7 +1424,7 @@
         <v>1.034010362201902</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9984726366914671</v>
+        <v>1.008193083831203</v>
       </c>
       <c r="D16">
-        <v>1.000731204527896</v>
+        <v>0.5518812590135163</v>
       </c>
       <c r="E16">
-        <v>1.000318015974913</v>
+        <v>1.607413142963149</v>
       </c>
       <c r="F16">
-        <v>0.9984726366914671</v>
+        <v>1.212454595646334</v>
       </c>
       <c r="G16">
-        <v>1.002998457945122</v>
+        <v>0.2614080107488265</v>
       </c>
       <c r="H16">
-        <v>1.000186111632075</v>
+        <v>1.082679454719909</v>
       </c>
       <c r="I16">
-        <v>0.9995875833144443</v>
+        <v>1.607413142963149</v>
       </c>
       <c r="J16">
-        <v>1.000731204527896</v>
+        <v>0.2614080107488265</v>
       </c>
       <c r="K16">
-        <v>0.9984726366914671</v>
+        <v>1.607413142963149</v>
       </c>
       <c r="L16">
-        <v>1.000318015974913</v>
+        <v>1.082679454719909</v>
       </c>
       <c r="M16">
-        <v>1.000524610251404</v>
+        <v>0.672043732734368</v>
       </c>
       <c r="N16">
-        <v>1.000524610251404</v>
+        <v>0.672043732734368</v>
       </c>
       <c r="O16">
-        <v>1.000411777378295</v>
+        <v>0.6319895748274175</v>
       </c>
       <c r="P16">
-        <v>0.9998406190647587</v>
+        <v>0.9838335361439615</v>
       </c>
       <c r="Q16">
-        <v>0.9998406190647587</v>
+        <v>0.9838335361439615</v>
       </c>
       <c r="R16">
-        <v>0.9994986234714358</v>
+        <v>1.139728437848758</v>
       </c>
       <c r="S16">
-        <v>0.9994986234714358</v>
+        <v>1.139728437848758</v>
       </c>
       <c r="T16">
-        <v>1.00038233501432</v>
+        <v>0.9540049244871561</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.00045906627005</v>
+        <v>1.153586793395633</v>
       </c>
       <c r="D17">
-        <v>0.9976229916163222</v>
+        <v>0.649427987047165</v>
       </c>
       <c r="E17">
-        <v>1.000187066427251</v>
+        <v>1.384130611583698</v>
       </c>
       <c r="F17">
-        <v>1.00045906627005</v>
+        <v>1.157364863224381</v>
       </c>
       <c r="G17">
-        <v>1.003280527375398</v>
+        <v>0.4428554325767077</v>
       </c>
       <c r="H17">
-        <v>0.9984579124670672</v>
+        <v>1.087910426135959</v>
       </c>
       <c r="I17">
-        <v>1.000533368823424</v>
+        <v>1.384130611583698</v>
       </c>
       <c r="J17">
-        <v>0.9976229916163222</v>
+        <v>0.4428554325767077</v>
       </c>
       <c r="K17">
-        <v>1.00045906627005</v>
+        <v>1.384130611583698</v>
       </c>
       <c r="L17">
-        <v>1.000187066427251</v>
+        <v>1.087910426135959</v>
       </c>
       <c r="M17">
-        <v>0.9989050290217865</v>
+        <v>0.7653829293563332</v>
       </c>
       <c r="N17">
-        <v>0.9989050290217865</v>
+        <v>0.7653829293563332</v>
       </c>
       <c r="O17">
-        <v>0.9987559901702134</v>
+        <v>0.7267312819199439</v>
       </c>
       <c r="P17">
-        <v>0.9994230414378743</v>
+        <v>0.9716321567654548</v>
       </c>
       <c r="Q17">
-        <v>0.9994230414378743</v>
+        <v>0.9716321567654548</v>
       </c>
       <c r="R17">
-        <v>0.9996820476459183</v>
+        <v>1.074756770470016</v>
       </c>
       <c r="S17">
-        <v>0.9996820476459183</v>
+        <v>1.074756770470016</v>
       </c>
       <c r="T17">
-        <v>1.000090155496585</v>
+        <v>0.9792126856605905</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.010352991484143</v>
+        <v>1.438062799893042</v>
       </c>
       <c r="D18">
-        <v>0.9885302179806942</v>
+        <v>0.8447067885815175</v>
       </c>
       <c r="E18">
-        <v>1.002212614289804</v>
+        <v>0.9406506839354776</v>
       </c>
       <c r="F18">
-        <v>1.010352991484143</v>
+        <v>1.047567206713403</v>
       </c>
       <c r="G18">
-        <v>1.003903076609905</v>
+        <v>0.8051725986453059</v>
       </c>
       <c r="H18">
-        <v>0.9928095486180017</v>
+        <v>1.097673051239215</v>
       </c>
       <c r="I18">
-        <v>1.002222580988996</v>
+        <v>0.9406506839354776</v>
       </c>
       <c r="J18">
-        <v>0.9885302179806942</v>
+        <v>0.8051725986453059</v>
       </c>
       <c r="K18">
-        <v>1.010352991484143</v>
+        <v>0.9406506839354776</v>
       </c>
       <c r="L18">
-        <v>1.002212614289804</v>
+        <v>1.097673051239215</v>
       </c>
       <c r="M18">
-        <v>0.9953714161352492</v>
+        <v>0.9514228249422605</v>
       </c>
       <c r="N18">
-        <v>0.9953714161352492</v>
+        <v>0.9514228249422605</v>
       </c>
       <c r="O18">
-        <v>0.9945174602961666</v>
+        <v>0.9158508128220127</v>
       </c>
       <c r="P18">
-        <v>1.00036527458488</v>
+        <v>0.9478321112733328</v>
       </c>
       <c r="Q18">
-        <v>1.00036527458488</v>
+        <v>0.9478321112733328</v>
       </c>
       <c r="R18">
-        <v>1.002862203809696</v>
+        <v>0.946036754438869</v>
       </c>
       <c r="S18">
-        <v>1.002862203809696</v>
+        <v>0.946036754438869</v>
       </c>
       <c r="T18">
-        <v>1.000005171661924</v>
+        <v>1.028972188167993</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1618,306 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.55406177148059</v>
+      </c>
+      <c r="D19">
+        <v>0.8311093605090051</v>
+      </c>
+      <c r="E19">
+        <v>0.898309651208208</v>
+      </c>
+      <c r="F19">
+        <v>1.042235293896721</v>
+      </c>
+      <c r="G19">
+        <v>0.8437027997907106</v>
+      </c>
+      <c r="H19">
+        <v>1.109111497277473</v>
+      </c>
+      <c r="I19">
+        <v>0.898309651208208</v>
+      </c>
+      <c r="J19">
+        <v>0.8437027997907106</v>
+      </c>
+      <c r="K19">
+        <v>0.898309651208208</v>
+      </c>
+      <c r="L19">
+        <v>1.109111497277473</v>
+      </c>
+      <c r="M19">
+        <v>0.9764071485340917</v>
+      </c>
+      <c r="N19">
+        <v>0.9764071485340917</v>
+      </c>
+      <c r="O19">
+        <v>0.9279745525257295</v>
+      </c>
+      <c r="P19">
+        <v>0.9503746494254638</v>
+      </c>
+      <c r="Q19">
+        <v>0.9503746494254638</v>
+      </c>
+      <c r="R19">
+        <v>0.9373583998711499</v>
+      </c>
+      <c r="S19">
+        <v>0.9373583998711499</v>
+      </c>
+      <c r="T19">
+        <v>1.046421729027118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.002998457945122</v>
+      </c>
+      <c r="D20">
+        <v>1.000186111632075</v>
+      </c>
+      <c r="E20">
+        <v>0.9984726366914675</v>
+      </c>
+      <c r="F20">
+        <v>0.9995875833144444</v>
+      </c>
+      <c r="G20">
+        <v>1.000731204527895</v>
+      </c>
+      <c r="H20">
+        <v>1.000318015974913</v>
+      </c>
+      <c r="I20">
+        <v>0.9984726366914675</v>
+      </c>
+      <c r="J20">
+        <v>1.000731204527895</v>
+      </c>
+      <c r="K20">
+        <v>0.9984726366914675</v>
+      </c>
+      <c r="L20">
+        <v>1.000318015974913</v>
+      </c>
+      <c r="M20">
+        <v>1.000524610251404</v>
+      </c>
+      <c r="N20">
+        <v>1.000524610251404</v>
+      </c>
+      <c r="O20">
+        <v>1.000411777378294</v>
+      </c>
+      <c r="P20">
+        <v>0.9998406190647585</v>
+      </c>
+      <c r="Q20">
+        <v>0.9998406190647584</v>
+      </c>
+      <c r="R20">
+        <v>0.9994986234714357</v>
+      </c>
+      <c r="S20">
+        <v>0.9994986234714357</v>
+      </c>
+      <c r="T20">
+        <v>1.00038233501432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.003280527375398</v>
+      </c>
+      <c r="D21">
+        <v>0.9984579124670675</v>
+      </c>
+      <c r="E21">
+        <v>1.000459066270051</v>
+      </c>
+      <c r="F21">
+        <v>1.000533368823424</v>
+      </c>
+      <c r="G21">
+        <v>0.9976229916163222</v>
+      </c>
+      <c r="H21">
+        <v>1.000187066427251</v>
+      </c>
+      <c r="I21">
+        <v>1.000459066270051</v>
+      </c>
+      <c r="J21">
+        <v>0.9976229916163222</v>
+      </c>
+      <c r="K21">
+        <v>1.000459066270051</v>
+      </c>
+      <c r="L21">
+        <v>1.000187066427251</v>
+      </c>
+      <c r="M21">
+        <v>0.9989050290217865</v>
+      </c>
+      <c r="N21">
+        <v>0.9989050290217865</v>
+      </c>
+      <c r="O21">
+        <v>0.9987559901702134</v>
+      </c>
+      <c r="P21">
+        <v>0.9994230414378745</v>
+      </c>
+      <c r="Q21">
+        <v>0.9994230414378745</v>
+      </c>
+      <c r="R21">
+        <v>0.9996820476459185</v>
+      </c>
+      <c r="S21">
+        <v>0.9996820476459185</v>
+      </c>
+      <c r="T21">
+        <v>1.000090155496585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.003903076609905</v>
+      </c>
+      <c r="D22">
+        <v>0.992809548618002</v>
+      </c>
+      <c r="E22">
+        <v>1.010352991484143</v>
+      </c>
+      <c r="F22">
+        <v>1.002222580988996</v>
+      </c>
+      <c r="G22">
+        <v>0.9885302179806938</v>
+      </c>
+      <c r="H22">
+        <v>1.002212614289804</v>
+      </c>
+      <c r="I22">
+        <v>1.010352991484143</v>
+      </c>
+      <c r="J22">
+        <v>0.9885302179806938</v>
+      </c>
+      <c r="K22">
+        <v>1.010352991484143</v>
+      </c>
+      <c r="L22">
+        <v>1.002212614289804</v>
+      </c>
+      <c r="M22">
+        <v>0.995371416135249</v>
+      </c>
+      <c r="N22">
+        <v>0.995371416135249</v>
+      </c>
+      <c r="O22">
+        <v>0.9945174602961666</v>
+      </c>
+      <c r="P22">
+        <v>1.00036527458488</v>
+      </c>
+      <c r="Q22">
+        <v>1.00036527458488</v>
+      </c>
+      <c r="R22">
+        <v>1.002862203809696</v>
+      </c>
+      <c r="S22">
+        <v>1.002862203809696</v>
+      </c>
+      <c r="T22">
+        <v>1.000005171661924</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.998095724139536</v>
+      </c>
+      <c r="D23">
+        <v>0.9830003949226745</v>
+      </c>
+      <c r="E23">
         <v>1.026875273058584</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>1.007566793252644</v>
+      </c>
+      <c r="G23">
         <v>0.9711474564797683</v>
       </c>
-      <c r="E19">
+      <c r="H23">
         <v>1.002829490535262</v>
       </c>
-      <c r="F19">
+      <c r="I23">
         <v>1.026875273058584</v>
       </c>
-      <c r="G19">
-        <v>0.998095724139536</v>
-      </c>
-      <c r="H19">
-        <v>0.9830003949226743</v>
-      </c>
-      <c r="I19">
-        <v>1.007566793252644</v>
-      </c>
-      <c r="J19">
+      <c r="J23">
         <v>0.9711474564797683</v>
       </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.026875273058584</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.002829490535262</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9869884735075152</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9869884735075152</v>
       </c>
-      <c r="O19">
-        <v>0.9856591139792349</v>
-      </c>
-      <c r="P19">
+      <c r="O23">
+        <v>0.985659113979235</v>
+      </c>
+      <c r="P23">
         <v>1.000284073357872</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000284073357872</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.00693187328305</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.00693187328305</v>
       </c>
-      <c r="T19">
-        <v>0.9982525220647448</v>
+      <c r="T23">
+        <v>0.998252522064745</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW15.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9968045737909879</v>
+        <v>1.522128329654181</v>
       </c>
       <c r="D3">
-        <v>0.9761819341352399</v>
+        <v>0.8160271044474058</v>
       </c>
       <c r="E3">
-        <v>1.034507640599115</v>
+        <v>0.9398207549351593</v>
       </c>
       <c r="F3">
-        <v>1.011317757970617</v>
+        <v>1.053893213559081</v>
       </c>
       <c r="G3">
-        <v>0.9621776914201268</v>
+        <v>0.7703683545542516</v>
       </c>
       <c r="H3">
-        <v>1.003981419282098</v>
+        <v>1.110175025389045</v>
       </c>
       <c r="I3">
-        <v>1.034507640599115</v>
+        <v>0.9398207549351593</v>
       </c>
       <c r="J3">
-        <v>0.9621776914201268</v>
+        <v>0.7703683545542516</v>
       </c>
       <c r="K3">
-        <v>1.034507640599115</v>
+        <v>0.9398207549351593</v>
       </c>
       <c r="L3">
-        <v>1.003981419282098</v>
+        <v>1.110175025389045</v>
       </c>
       <c r="M3">
-        <v>0.9830795553511122</v>
+        <v>0.9402716899716483</v>
       </c>
       <c r="N3">
-        <v>0.9830795553511122</v>
+        <v>0.9402716899716483</v>
       </c>
       <c r="O3">
-        <v>0.9807803482791547</v>
+        <v>0.8988568281302342</v>
       </c>
       <c r="P3">
-        <v>1.00022225043378</v>
+        <v>0.9401213782928187</v>
       </c>
       <c r="Q3">
-        <v>1.00022225043378</v>
+        <v>0.9401213782928187</v>
       </c>
       <c r="R3">
-        <v>1.008793597975113</v>
+        <v>0.9400462224534039</v>
       </c>
       <c r="S3">
-        <v>1.008793597975113</v>
+        <v>0.9400462224534039</v>
       </c>
       <c r="T3">
-        <v>0.9974951695330306</v>
+        <v>1.035402130423188</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9947849456382666</v>
+        <v>1.479625948923784</v>
       </c>
       <c r="D4">
-        <v>0.9544368470418514</v>
+        <v>0.8320575155865617</v>
       </c>
       <c r="E4">
-        <v>1.065904457492124</v>
+        <v>0.9378562419064456</v>
       </c>
       <c r="F4">
-        <v>1.021633333614557</v>
+        <v>1.050036069582552</v>
       </c>
       <c r="G4">
-        <v>0.9258221223941168</v>
+        <v>0.7904571548837702</v>
       </c>
       <c r="H4">
-        <v>1.007466558154865</v>
+        <v>1.103649709452107</v>
       </c>
       <c r="I4">
-        <v>1.065904457492124</v>
+        <v>0.9378562419064456</v>
       </c>
       <c r="J4">
-        <v>0.9258221223941168</v>
+        <v>0.7904571548837702</v>
       </c>
       <c r="K4">
-        <v>1.065904457492124</v>
+        <v>0.9378562419064456</v>
       </c>
       <c r="L4">
-        <v>1.007466558154865</v>
+        <v>1.103649709452107</v>
       </c>
       <c r="M4">
-        <v>0.9666443402744908</v>
+        <v>0.9470534321679386</v>
       </c>
       <c r="N4">
-        <v>0.9666443402744908</v>
+        <v>0.9470534321679386</v>
       </c>
       <c r="O4">
-        <v>0.962575175863611</v>
+        <v>0.9087214599741463</v>
       </c>
       <c r="P4">
-        <v>0.9997310460137018</v>
+        <v>0.9439877020807742</v>
       </c>
       <c r="Q4">
-        <v>0.9997310460137018</v>
+        <v>0.9439877020807742</v>
       </c>
       <c r="R4">
-        <v>1.016274398883307</v>
+        <v>0.942454837037192</v>
       </c>
       <c r="S4">
-        <v>1.016274398883307</v>
+        <v>0.942454837037192</v>
       </c>
       <c r="T4">
-        <v>0.9950080440559633</v>
+        <v>1.03228044005587</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.993907671353221</v>
+        <v>1.604185039056603</v>
       </c>
       <c r="D5">
-        <v>0.9125441699988421</v>
+        <v>0.785659044207547</v>
       </c>
       <c r="E5">
-        <v>1.124235184701364</v>
+        <v>0.9427732918867927</v>
       </c>
       <c r="F5">
-        <v>1.041187008536568</v>
+        <v>1.061069090754718</v>
       </c>
       <c r="G5">
-        <v>0.8612893443741583</v>
+        <v>0.7325360055021565</v>
       </c>
       <c r="H5">
-        <v>1.015535806879807</v>
+        <v>1.122726109703502</v>
       </c>
       <c r="I5">
-        <v>1.124235184701364</v>
+        <v>0.9427732918867927</v>
       </c>
       <c r="J5">
-        <v>0.8612893443741583</v>
+        <v>0.7325360055021565</v>
       </c>
       <c r="K5">
-        <v>1.124235184701364</v>
+        <v>0.9427732918867927</v>
       </c>
       <c r="L5">
-        <v>1.015535806879807</v>
+        <v>1.122726109703502</v>
       </c>
       <c r="M5">
-        <v>0.9384125756269828</v>
+        <v>0.927631057602829</v>
       </c>
       <c r="N5">
-        <v>0.9384125756269828</v>
+        <v>0.927631057602829</v>
       </c>
       <c r="O5">
-        <v>0.9297897737509359</v>
+        <v>0.8803070531377349</v>
       </c>
       <c r="P5">
-        <v>1.000353445318443</v>
+        <v>0.932678469030817</v>
       </c>
       <c r="Q5">
-        <v>1.000353445318443</v>
+        <v>0.932678469030817</v>
       </c>
       <c r="R5">
-        <v>1.031323880164174</v>
+        <v>0.9352021747448109</v>
       </c>
       <c r="S5">
-        <v>1.031323880164174</v>
+        <v>0.9352021747448109</v>
       </c>
       <c r="T5">
-        <v>0.9914498643073267</v>
+        <v>1.04149143018522</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9826482963403386</v>
+        <v>1.682394753465911</v>
       </c>
       <c r="D6">
-        <v>0.8684044770482082</v>
+        <v>0.7573941848977273</v>
       </c>
       <c r="E6">
-        <v>1.187964322308887</v>
+        <v>0.9446045288636358</v>
       </c>
       <c r="F6">
-        <v>1.06223651254781</v>
+        <v>1.067591696136364</v>
       </c>
       <c r="G6">
-        <v>0.8022216738521741</v>
+        <v>0.6975907728136367</v>
       </c>
       <c r="H6">
-        <v>1.033573696231616</v>
+        <v>1.134633870852274</v>
       </c>
       <c r="I6">
-        <v>1.187964322308887</v>
+        <v>0.9446045288636358</v>
       </c>
       <c r="J6">
-        <v>0.8022216738521741</v>
+        <v>0.6975907728136367</v>
       </c>
       <c r="K6">
-        <v>1.187964322308887</v>
+        <v>0.9446045288636358</v>
       </c>
       <c r="L6">
-        <v>1.033573696231616</v>
+        <v>1.134633870852274</v>
       </c>
       <c r="M6">
-        <v>0.9178976850418951</v>
+        <v>0.9161123218329554</v>
       </c>
       <c r="N6">
-        <v>0.9178976850418951</v>
+        <v>0.9161123218329554</v>
       </c>
       <c r="O6">
-        <v>0.9013999490439994</v>
+        <v>0.8632062761878793</v>
       </c>
       <c r="P6">
-        <v>1.007919897464226</v>
+        <v>0.9256097241765154</v>
       </c>
       <c r="Q6">
-        <v>1.007919897464226</v>
+        <v>0.9256097241765154</v>
       </c>
       <c r="R6">
-        <v>1.052931003675391</v>
+        <v>0.9303584253482955</v>
       </c>
       <c r="S6">
-        <v>1.052931003675391</v>
+        <v>0.9303584253482955</v>
       </c>
       <c r="T6">
-        <v>0.9895081630548389</v>
+        <v>1.047368301171591</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.004352664836402</v>
+        <v>1.258025715517013</v>
       </c>
       <c r="D7">
-        <v>0.9988155175018748</v>
+        <v>0.8810311346917162</v>
       </c>
       <c r="E7">
-        <v>0.999328622440724</v>
+        <v>0.9949750102473949</v>
       </c>
       <c r="F7">
-        <v>1.000221242843203</v>
+        <v>1.034301900161736</v>
       </c>
       <c r="G7">
-        <v>0.9987050047500903</v>
+        <v>0.8634134976184595</v>
       </c>
       <c r="H7">
-        <v>1.000711906218698</v>
+        <v>1.072329714251792</v>
       </c>
       <c r="I7">
-        <v>0.999328622440724</v>
+        <v>0.9949750102473949</v>
       </c>
       <c r="J7">
-        <v>0.9987050047500903</v>
+        <v>0.8634134976184595</v>
       </c>
       <c r="K7">
-        <v>0.999328622440724</v>
+        <v>0.9949750102473949</v>
       </c>
       <c r="L7">
-        <v>1.000711906218698</v>
+        <v>1.072329714251792</v>
       </c>
       <c r="M7">
-        <v>0.9997084554843939</v>
+        <v>0.9678716059351257</v>
       </c>
       <c r="N7">
-        <v>0.9997084554843939</v>
+        <v>0.9678716059351257</v>
       </c>
       <c r="O7">
-        <v>0.9994108094902209</v>
+        <v>0.9389247821873226</v>
       </c>
       <c r="P7">
-        <v>0.9995818444698372</v>
+        <v>0.9769060740392154</v>
       </c>
       <c r="Q7">
-        <v>0.9995818444698372</v>
+        <v>0.9769060740392154</v>
       </c>
       <c r="R7">
-        <v>0.9995185389625589</v>
+        <v>0.9814233080912602</v>
       </c>
       <c r="S7">
-        <v>0.9995185389625589</v>
+        <v>0.9814233080912602</v>
       </c>
       <c r="T7">
-        <v>1.000355826431832</v>
+        <v>1.017346162081352</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.010418495970393</v>
+        <v>1.271685222501387</v>
       </c>
       <c r="D8">
-        <v>0.996950060521566</v>
+        <v>0.8771959157191707</v>
       </c>
       <c r="E8">
-        <v>0.9986012312704768</v>
+        <v>0.9937466504097803</v>
       </c>
       <c r="F8">
-        <v>1.000666471088441</v>
+        <v>1.034944930335487</v>
       </c>
       <c r="G8">
-        <v>0.9964665022589224</v>
+        <v>0.8590645927027248</v>
       </c>
       <c r="H8">
-        <v>1.001831092524203</v>
+        <v>1.074327842576949</v>
       </c>
       <c r="I8">
-        <v>0.9986012312704768</v>
+        <v>0.9937466504097803</v>
       </c>
       <c r="J8">
-        <v>0.9964665022589224</v>
+        <v>0.8590645927027248</v>
       </c>
       <c r="K8">
-        <v>0.9986012312704768</v>
+        <v>0.9937466504097803</v>
       </c>
       <c r="L8">
-        <v>1.001831092524203</v>
+        <v>1.074327842576949</v>
       </c>
       <c r="M8">
-        <v>0.9991487973915629</v>
+        <v>0.9666962176398368</v>
       </c>
       <c r="N8">
-        <v>0.9991487973915629</v>
+        <v>0.9666962176398368</v>
       </c>
       <c r="O8">
-        <v>0.998415885101564</v>
+        <v>0.9368627836662814</v>
       </c>
       <c r="P8">
-        <v>0.9989662753512009</v>
+        <v>0.9757130285631513</v>
       </c>
       <c r="Q8">
-        <v>0.9989662753512007</v>
+        <v>0.9757130285631513</v>
       </c>
       <c r="R8">
-        <v>0.9988750143310198</v>
+        <v>0.9802214340248085</v>
       </c>
       <c r="S8">
-        <v>0.9988750143310198</v>
+        <v>0.9802214340248085</v>
       </c>
       <c r="T8">
-        <v>1.000822308939</v>
+        <v>1.01849419237425</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.013123411648214</v>
+        <v>1.286720702458826</v>
       </c>
       <c r="D9">
-        <v>0.9955149155630064</v>
+        <v>0.8742956207241985</v>
       </c>
       <c r="E9">
-        <v>0.9988395332666287</v>
+        <v>0.9908264484720357</v>
       </c>
       <c r="F9">
-        <v>1.001157676741942</v>
+        <v>1.034998376480745</v>
       </c>
       <c r="G9">
-        <v>0.9946349896618402</v>
+        <v>0.8563917737500361</v>
       </c>
       <c r="H9">
-        <v>1.002581312563202</v>
+        <v>1.076039161980854</v>
       </c>
       <c r="I9">
-        <v>0.9988395332666287</v>
+        <v>0.9908264484720357</v>
       </c>
       <c r="J9">
-        <v>0.9946349896618402</v>
+        <v>0.8563917737500361</v>
       </c>
       <c r="K9">
-        <v>0.9988395332666287</v>
+        <v>0.9908264484720357</v>
       </c>
       <c r="L9">
-        <v>1.002581312563202</v>
+        <v>1.076039161980854</v>
       </c>
       <c r="M9">
-        <v>0.9986081511125213</v>
+        <v>0.9662154678654453</v>
       </c>
       <c r="N9">
-        <v>0.9986081511125213</v>
+        <v>0.9662154678654453</v>
       </c>
       <c r="O9">
-        <v>0.9975770725960164</v>
+        <v>0.9355755188183631</v>
       </c>
       <c r="P9">
-        <v>0.9986852784972239</v>
+        <v>0.9744191280676421</v>
       </c>
       <c r="Q9">
-        <v>0.9986852784972239</v>
+        <v>0.974419128067642</v>
       </c>
       <c r="R9">
-        <v>0.998723842189575</v>
+        <v>0.9785209581687404</v>
       </c>
       <c r="S9">
-        <v>0.998723842189575</v>
+        <v>0.9785209581687404</v>
       </c>
       <c r="T9">
-        <v>1.000975306574139</v>
+        <v>1.019878680644449</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.030150620244445</v>
+        <v>1.309125792275116</v>
       </c>
       <c r="D10">
-        <v>0.9905391637916398</v>
+        <v>0.8659142661810276</v>
       </c>
       <c r="E10">
-        <v>0.9966652047738679</v>
+        <v>0.9941264809228088</v>
       </c>
       <c r="F10">
-        <v>1.002187070740782</v>
+        <v>1.036537418392902</v>
       </c>
       <c r="G10">
-        <v>0.9889728057219788</v>
+        <v>0.8455930607249889</v>
       </c>
       <c r="H10">
-        <v>1.00548110644225</v>
+        <v>1.078976740645238</v>
       </c>
       <c r="I10">
-        <v>0.9966652047738679</v>
+        <v>0.9941264809228088</v>
       </c>
       <c r="J10">
-        <v>0.9889728057219788</v>
+        <v>0.8455930607249889</v>
       </c>
       <c r="K10">
-        <v>0.9966652047738679</v>
+        <v>0.9941264809228088</v>
       </c>
       <c r="L10">
-        <v>1.00548110644225</v>
+        <v>1.078976740645238</v>
       </c>
       <c r="M10">
-        <v>0.9972269560821143</v>
+        <v>0.9622849006851136</v>
       </c>
       <c r="N10">
-        <v>0.9972269560821143</v>
+        <v>0.9622849006851136</v>
       </c>
       <c r="O10">
-        <v>0.9949976919852895</v>
+        <v>0.9301613558504184</v>
       </c>
       <c r="P10">
-        <v>0.9970397056460322</v>
+        <v>0.9728987607643452</v>
       </c>
       <c r="Q10">
-        <v>0.9970397056460323</v>
+        <v>0.9728987607643452</v>
       </c>
       <c r="R10">
-        <v>0.9969460804279912</v>
+        <v>0.9782056908039611</v>
       </c>
       <c r="S10">
-        <v>0.9969460804279912</v>
+        <v>0.9782056908039611</v>
       </c>
       <c r="T10">
-        <v>1.002332661952494</v>
+        <v>1.021712293190347</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.046294649386417</v>
+        <v>0.9973847474582913</v>
       </c>
       <c r="D11">
-        <v>0.9838876567903786</v>
+        <v>0.9747135390141256</v>
       </c>
       <c r="E11">
-        <v>0.9964566157058424</v>
+        <v>1.035496150284531</v>
       </c>
       <c r="F11">
-        <v>1.004189357340551</v>
+        <v>1.012341879295212</v>
       </c>
       <c r="G11">
-        <v>0.9806026977869738</v>
+        <v>0.9571222657082623</v>
       </c>
       <c r="H11">
-        <v>1.009145096807521</v>
+        <v>1.004520919632398</v>
       </c>
       <c r="I11">
-        <v>0.9964566157058424</v>
+        <v>1.035496150284531</v>
       </c>
       <c r="J11">
-        <v>0.9806026977869738</v>
+        <v>0.9571222657082623</v>
       </c>
       <c r="K11">
-        <v>0.9964566157058424</v>
+        <v>1.035496150284531</v>
       </c>
       <c r="L11">
-        <v>1.009145096807521</v>
+        <v>1.004520919632398</v>
       </c>
       <c r="M11">
-        <v>0.9948738972972473</v>
+        <v>0.9808215926703302</v>
       </c>
       <c r="N11">
-        <v>0.9948738972972473</v>
+        <v>0.9808215926703302</v>
       </c>
       <c r="O11">
-        <v>0.9912118171282911</v>
+        <v>0.9787855747849287</v>
       </c>
       <c r="P11">
-        <v>0.9954014701001124</v>
+        <v>0.9990464452083971</v>
       </c>
       <c r="Q11">
-        <v>0.9954014701001123</v>
+        <v>0.9990464452083971</v>
       </c>
       <c r="R11">
-        <v>0.9956652565015448</v>
+        <v>1.008158871477431</v>
       </c>
       <c r="S11">
-        <v>0.9956652565015448</v>
+        <v>1.008158871477431</v>
       </c>
       <c r="T11">
-        <v>1.003429345636281</v>
+        <v>0.9969299168988034</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.391590026413473</v>
+        <v>0.9999509080904477</v>
       </c>
       <c r="D12">
-        <v>1.151266502159159</v>
+        <v>0.9879029284585337</v>
       </c>
       <c r="E12">
-        <v>1.306560201704678</v>
+        <v>1.017119773483678</v>
       </c>
       <c r="F12">
-        <v>0.954542229572208</v>
+        <v>1.005604189256843</v>
       </c>
       <c r="G12">
-        <v>1.01671927385909</v>
+        <v>0.9802146137075337</v>
       </c>
       <c r="H12">
-        <v>0.8043992868324136</v>
+        <v>1.001945991542017</v>
       </c>
       <c r="I12">
-        <v>1.306560201704678</v>
+        <v>1.017119773483678</v>
       </c>
       <c r="J12">
-        <v>1.01671927385909</v>
+        <v>0.9802146137075337</v>
       </c>
       <c r="K12">
-        <v>1.306560201704678</v>
+        <v>1.017119773483678</v>
       </c>
       <c r="L12">
-        <v>0.8043992868324136</v>
+        <v>1.001945991542017</v>
       </c>
       <c r="M12">
-        <v>0.9105592803457518</v>
+        <v>0.9910803026247754</v>
       </c>
       <c r="N12">
-        <v>0.9105592803457518</v>
+        <v>0.9910803026247754</v>
       </c>
       <c r="O12">
-        <v>0.9907950209502209</v>
+        <v>0.9900211779026948</v>
       </c>
       <c r="P12">
-        <v>1.042559587465394</v>
+        <v>0.9997601262444097</v>
       </c>
       <c r="Q12">
-        <v>1.042559587465394</v>
+        <v>0.9997601262444097</v>
       </c>
       <c r="R12">
-        <v>1.108559741025215</v>
+        <v>1.004100038054227</v>
       </c>
       <c r="S12">
-        <v>1.108559741025215</v>
+        <v>1.004100038054227</v>
       </c>
       <c r="T12">
-        <v>0.9375129200901703</v>
+        <v>0.9987897340898422</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.10316405772239</v>
+        <v>0.9941564758110862</v>
       </c>
       <c r="D13">
-        <v>1.026463649762425</v>
+        <v>0.9583809190671054</v>
       </c>
       <c r="E13">
-        <v>0.8282460588397216</v>
+        <v>1.062453355812126</v>
       </c>
       <c r="F13">
-        <v>0.9803016238526725</v>
+        <v>1.019555020437841</v>
       </c>
       <c r="G13">
-        <v>1.220092684267637</v>
+        <v>0.9321994545759918</v>
       </c>
       <c r="H13">
-        <v>1.045602827429533</v>
+        <v>1.005555790464407</v>
       </c>
       <c r="I13">
-        <v>0.8282460588397216</v>
+        <v>1.062453355812126</v>
       </c>
       <c r="J13">
-        <v>1.220092684267637</v>
+        <v>0.9321994545759918</v>
       </c>
       <c r="K13">
-        <v>0.8282460588397216</v>
+        <v>1.062453355812126</v>
       </c>
       <c r="L13">
-        <v>1.045602827429533</v>
+        <v>1.005555790464407</v>
       </c>
       <c r="M13">
-        <v>1.132847755848585</v>
+        <v>0.9688776225201994</v>
       </c>
       <c r="N13">
-        <v>1.132847755848585</v>
+        <v>0.9688776225201994</v>
       </c>
       <c r="O13">
-        <v>1.097386387153199</v>
+        <v>0.9653787213691681</v>
       </c>
       <c r="P13">
-        <v>1.031313856845631</v>
+        <v>1.000069533617508</v>
       </c>
       <c r="Q13">
-        <v>1.031313856845631</v>
+        <v>1.000069533617508</v>
       </c>
       <c r="R13">
-        <v>0.9805469073441535</v>
+        <v>1.015665489166163</v>
       </c>
       <c r="S13">
-        <v>0.9805469073441535</v>
+        <v>1.015665489166163</v>
       </c>
       <c r="T13">
-        <v>1.03397848364573</v>
+        <v>0.9953835026947596</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.3916032350935442</v>
+        <v>0.997461540985182</v>
       </c>
       <c r="D14">
-        <v>1.15140892260306</v>
+        <v>0.9350563073948842</v>
       </c>
       <c r="E14">
-        <v>1.30647241442659</v>
+        <v>1.091809854290983</v>
       </c>
       <c r="F14">
-        <v>0.9547365632262481</v>
+        <v>1.030504030397122</v>
       </c>
       <c r="G14">
-        <v>1.015944378849625</v>
+        <v>0.8944013273071115</v>
       </c>
       <c r="H14">
-        <v>0.8045724868653493</v>
+        <v>1.010652966065527</v>
       </c>
       <c r="I14">
-        <v>1.30647241442659</v>
+        <v>1.091809854290983</v>
       </c>
       <c r="J14">
-        <v>1.015944378849625</v>
+        <v>0.8944013273071115</v>
       </c>
       <c r="K14">
-        <v>1.30647241442659</v>
+        <v>1.091809854290983</v>
       </c>
       <c r="L14">
-        <v>0.8045724868653493</v>
+        <v>1.010652966065527</v>
       </c>
       <c r="M14">
-        <v>0.910258432857487</v>
+        <v>0.952527146686319</v>
       </c>
       <c r="N14">
-        <v>0.910258432857487</v>
+        <v>0.952527146686319</v>
       </c>
       <c r="O14">
-        <v>0.9906419294393446</v>
+        <v>0.946703533589174</v>
       </c>
       <c r="P14">
-        <v>1.042329760047188</v>
+        <v>0.9989547158878738</v>
       </c>
       <c r="Q14">
-        <v>1.042329760047188</v>
+        <v>0.9989547158878738</v>
       </c>
       <c r="R14">
-        <v>1.108365423642038</v>
+        <v>1.022168500488651</v>
       </c>
       <c r="S14">
-        <v>1.108365423642038</v>
+        <v>1.022168500488651</v>
       </c>
       <c r="T14">
-        <v>0.937456333510736</v>
+        <v>0.9933143377401349</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.103210607310078</v>
+        <v>0.9968045737909879</v>
       </c>
       <c r="D15">
-        <v>1.02632792105019</v>
+        <v>0.9761819341352399</v>
       </c>
       <c r="E15">
-        <v>0.8282660897528031</v>
+        <v>1.034507640599115</v>
       </c>
       <c r="F15">
-        <v>0.980189335457885</v>
+        <v>1.011317757970617</v>
       </c>
       <c r="G15">
-        <v>1.220618036484302</v>
+        <v>0.9621776914201268</v>
       </c>
       <c r="H15">
-        <v>1.045450183156155</v>
+        <v>1.003981419282098</v>
       </c>
       <c r="I15">
-        <v>0.8282660897528031</v>
+        <v>1.034507640599115</v>
       </c>
       <c r="J15">
-        <v>1.220618036484302</v>
+        <v>0.9621776914201268</v>
       </c>
       <c r="K15">
-        <v>0.8282660897528031</v>
+        <v>1.034507640599115</v>
       </c>
       <c r="L15">
-        <v>1.045450183156155</v>
+        <v>1.003981419282098</v>
       </c>
       <c r="M15">
-        <v>1.133034109820228</v>
+        <v>0.9830795553511122</v>
       </c>
       <c r="N15">
-        <v>1.133034109820228</v>
+        <v>0.9830795553511122</v>
       </c>
       <c r="O15">
-        <v>1.097465380230215</v>
+        <v>0.9807803482791547</v>
       </c>
       <c r="P15">
-        <v>1.031444769797753</v>
+        <v>1.00022225043378</v>
       </c>
       <c r="Q15">
-        <v>1.031444769797753</v>
+        <v>1.00022225043378</v>
       </c>
       <c r="R15">
-        <v>0.9806500997865156</v>
+        <v>1.008793597975113</v>
       </c>
       <c r="S15">
-        <v>0.9806500997865156</v>
+        <v>1.008793597975113</v>
       </c>
       <c r="T15">
-        <v>1.034010362201902</v>
+        <v>0.9974951695330306</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.008193083831203</v>
+        <v>0.9947849456382666</v>
       </c>
       <c r="D16">
-        <v>0.5518812590135163</v>
+        <v>0.9544368470418514</v>
       </c>
       <c r="E16">
-        <v>1.607413142963149</v>
+        <v>1.065904457492124</v>
       </c>
       <c r="F16">
-        <v>1.212454595646334</v>
+        <v>1.021633333614557</v>
       </c>
       <c r="G16">
-        <v>0.2614080107488265</v>
+        <v>0.9258221223941168</v>
       </c>
       <c r="H16">
-        <v>1.082679454719909</v>
+        <v>1.007466558154865</v>
       </c>
       <c r="I16">
-        <v>1.607413142963149</v>
+        <v>1.065904457492124</v>
       </c>
       <c r="J16">
-        <v>0.2614080107488265</v>
+        <v>0.9258221223941168</v>
       </c>
       <c r="K16">
-        <v>1.607413142963149</v>
+        <v>1.065904457492124</v>
       </c>
       <c r="L16">
-        <v>1.082679454719909</v>
+        <v>1.007466558154865</v>
       </c>
       <c r="M16">
-        <v>0.672043732734368</v>
+        <v>0.9666443402744908</v>
       </c>
       <c r="N16">
-        <v>0.672043732734368</v>
+        <v>0.9666443402744908</v>
       </c>
       <c r="O16">
-        <v>0.6319895748274175</v>
+        <v>0.962575175863611</v>
       </c>
       <c r="P16">
-        <v>0.9838335361439615</v>
+        <v>0.9997310460137018</v>
       </c>
       <c r="Q16">
-        <v>0.9838335361439615</v>
+        <v>0.9997310460137018</v>
       </c>
       <c r="R16">
-        <v>1.139728437848758</v>
+        <v>1.016274398883307</v>
       </c>
       <c r="S16">
-        <v>1.139728437848758</v>
+        <v>1.016274398883307</v>
       </c>
       <c r="T16">
-        <v>0.9540049244871561</v>
+        <v>0.9950080440559633</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.153586793395633</v>
+        <v>0.993907671353221</v>
       </c>
       <c r="D17">
-        <v>0.649427987047165</v>
+        <v>0.9125441699988421</v>
       </c>
       <c r="E17">
-        <v>1.384130611583698</v>
+        <v>1.124235184701364</v>
       </c>
       <c r="F17">
-        <v>1.157364863224381</v>
+        <v>1.041187008536568</v>
       </c>
       <c r="G17">
-        <v>0.4428554325767077</v>
+        <v>0.8612893443741583</v>
       </c>
       <c r="H17">
-        <v>1.087910426135959</v>
+        <v>1.015535806879807</v>
       </c>
       <c r="I17">
-        <v>1.384130611583698</v>
+        <v>1.124235184701364</v>
       </c>
       <c r="J17">
-        <v>0.4428554325767077</v>
+        <v>0.8612893443741583</v>
       </c>
       <c r="K17">
-        <v>1.384130611583698</v>
+        <v>1.124235184701364</v>
       </c>
       <c r="L17">
-        <v>1.087910426135959</v>
+        <v>1.015535806879807</v>
       </c>
       <c r="M17">
-        <v>0.7653829293563332</v>
+        <v>0.9384125756269828</v>
       </c>
       <c r="N17">
-        <v>0.7653829293563332</v>
+        <v>0.9384125756269828</v>
       </c>
       <c r="O17">
-        <v>0.7267312819199439</v>
+        <v>0.9297897737509359</v>
       </c>
       <c r="P17">
-        <v>0.9716321567654548</v>
+        <v>1.000353445318443</v>
       </c>
       <c r="Q17">
-        <v>0.9716321567654548</v>
+        <v>1.000353445318443</v>
       </c>
       <c r="R17">
-        <v>1.074756770470016</v>
+        <v>1.031323880164174</v>
       </c>
       <c r="S17">
-        <v>1.074756770470016</v>
+        <v>1.031323880164174</v>
       </c>
       <c r="T17">
-        <v>0.9792126856605905</v>
+        <v>0.9914498643073267</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.438062799893042</v>
+        <v>0.9826482963403386</v>
       </c>
       <c r="D18">
-        <v>0.8447067885815175</v>
+        <v>0.8684044770482082</v>
       </c>
       <c r="E18">
-        <v>0.9406506839354776</v>
+        <v>1.187964322308887</v>
       </c>
       <c r="F18">
-        <v>1.047567206713403</v>
+        <v>1.06223651254781</v>
       </c>
       <c r="G18">
-        <v>0.8051725986453059</v>
+        <v>0.8022216738521741</v>
       </c>
       <c r="H18">
-        <v>1.097673051239215</v>
+        <v>1.033573696231616</v>
       </c>
       <c r="I18">
-        <v>0.9406506839354776</v>
+        <v>1.187964322308887</v>
       </c>
       <c r="J18">
-        <v>0.8051725986453059</v>
+        <v>0.8022216738521741</v>
       </c>
       <c r="K18">
-        <v>0.9406506839354776</v>
+        <v>1.187964322308887</v>
       </c>
       <c r="L18">
-        <v>1.097673051239215</v>
+        <v>1.033573696231616</v>
       </c>
       <c r="M18">
-        <v>0.9514228249422605</v>
+        <v>0.9178976850418951</v>
       </c>
       <c r="N18">
-        <v>0.9514228249422605</v>
+        <v>0.9178976850418951</v>
       </c>
       <c r="O18">
-        <v>0.9158508128220127</v>
+        <v>0.9013999490439994</v>
       </c>
       <c r="P18">
-        <v>0.9478321112733328</v>
+        <v>1.007919897464226</v>
       </c>
       <c r="Q18">
-        <v>0.9478321112733328</v>
+        <v>1.007919897464226</v>
       </c>
       <c r="R18">
-        <v>0.946036754438869</v>
+        <v>1.052931003675391</v>
       </c>
       <c r="S18">
-        <v>0.946036754438869</v>
+        <v>1.052931003675391</v>
       </c>
       <c r="T18">
-        <v>1.028972188167993</v>
+        <v>0.9895081630548389</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.55406177148059</v>
+        <v>1.004352664836402</v>
       </c>
       <c r="D19">
-        <v>0.8311093605090051</v>
+        <v>0.9988155175018748</v>
       </c>
       <c r="E19">
-        <v>0.898309651208208</v>
+        <v>0.999328622440724</v>
       </c>
       <c r="F19">
-        <v>1.042235293896721</v>
+        <v>1.000221242843203</v>
       </c>
       <c r="G19">
-        <v>0.8437027997907106</v>
+        <v>0.9987050047500903</v>
       </c>
       <c r="H19">
-        <v>1.109111497277473</v>
+        <v>1.000711906218698</v>
       </c>
       <c r="I19">
-        <v>0.898309651208208</v>
+        <v>0.999328622440724</v>
       </c>
       <c r="J19">
-        <v>0.8437027997907106</v>
+        <v>0.9987050047500903</v>
       </c>
       <c r="K19">
-        <v>0.898309651208208</v>
+        <v>0.999328622440724</v>
       </c>
       <c r="L19">
-        <v>1.109111497277473</v>
+        <v>1.000711906218698</v>
       </c>
       <c r="M19">
-        <v>0.9764071485340917</v>
+        <v>0.9997084554843939</v>
       </c>
       <c r="N19">
-        <v>0.9764071485340917</v>
+        <v>0.9997084554843939</v>
       </c>
       <c r="O19">
-        <v>0.9279745525257295</v>
+        <v>0.9994108094902209</v>
       </c>
       <c r="P19">
-        <v>0.9503746494254638</v>
+        <v>0.9995818444698372</v>
       </c>
       <c r="Q19">
-        <v>0.9503746494254638</v>
+        <v>0.9995818444698372</v>
       </c>
       <c r="R19">
-        <v>0.9373583998711499</v>
+        <v>0.9995185389625589</v>
       </c>
       <c r="S19">
-        <v>0.9373583998711499</v>
+        <v>0.9995185389625589</v>
       </c>
       <c r="T19">
-        <v>1.046421729027118</v>
+        <v>1.000355826431832</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.002998457945122</v>
+        <v>1.010418495970393</v>
       </c>
       <c r="D20">
-        <v>1.000186111632075</v>
+        <v>0.996950060521566</v>
       </c>
       <c r="E20">
-        <v>0.9984726366914675</v>
+        <v>0.9986012312704768</v>
       </c>
       <c r="F20">
-        <v>0.9995875833144444</v>
+        <v>1.000666471088441</v>
       </c>
       <c r="G20">
-        <v>1.000731204527895</v>
+        <v>0.9964665022589224</v>
       </c>
       <c r="H20">
-        <v>1.000318015974913</v>
+        <v>1.001831092524203</v>
       </c>
       <c r="I20">
-        <v>0.9984726366914675</v>
+        <v>0.9986012312704768</v>
       </c>
       <c r="J20">
-        <v>1.000731204527895</v>
+        <v>0.9964665022589224</v>
       </c>
       <c r="K20">
-        <v>0.9984726366914675</v>
+        <v>0.9986012312704768</v>
       </c>
       <c r="L20">
-        <v>1.000318015974913</v>
+        <v>1.001831092524203</v>
       </c>
       <c r="M20">
-        <v>1.000524610251404</v>
+        <v>0.9991487973915629</v>
       </c>
       <c r="N20">
-        <v>1.000524610251404</v>
+        <v>0.9991487973915629</v>
       </c>
       <c r="O20">
-        <v>1.000411777378294</v>
+        <v>0.998415885101564</v>
       </c>
       <c r="P20">
-        <v>0.9998406190647585</v>
+        <v>0.9989662753512009</v>
       </c>
       <c r="Q20">
-        <v>0.9998406190647584</v>
+        <v>0.9989662753512007</v>
       </c>
       <c r="R20">
-        <v>0.9994986234714357</v>
+        <v>0.9988750143310198</v>
       </c>
       <c r="S20">
-        <v>0.9994986234714357</v>
+        <v>0.9988750143310198</v>
       </c>
       <c r="T20">
-        <v>1.00038233501432</v>
+        <v>1.000822308939</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.003280527375398</v>
+        <v>1.013123411648214</v>
       </c>
       <c r="D21">
-        <v>0.9984579124670675</v>
+        <v>0.9955149155630064</v>
       </c>
       <c r="E21">
-        <v>1.000459066270051</v>
+        <v>0.9988395332666287</v>
       </c>
       <c r="F21">
-        <v>1.000533368823424</v>
+        <v>1.001157676741942</v>
       </c>
       <c r="G21">
-        <v>0.9976229916163222</v>
+        <v>0.9946349896618402</v>
       </c>
       <c r="H21">
-        <v>1.000187066427251</v>
+        <v>1.002581312563202</v>
       </c>
       <c r="I21">
-        <v>1.000459066270051</v>
+        <v>0.9988395332666287</v>
       </c>
       <c r="J21">
-        <v>0.9976229916163222</v>
+        <v>0.9946349896618402</v>
       </c>
       <c r="K21">
-        <v>1.000459066270051</v>
+        <v>0.9988395332666287</v>
       </c>
       <c r="L21">
-        <v>1.000187066427251</v>
+        <v>1.002581312563202</v>
       </c>
       <c r="M21">
-        <v>0.9989050290217865</v>
+        <v>0.9986081511125213</v>
       </c>
       <c r="N21">
-        <v>0.9989050290217865</v>
+        <v>0.9986081511125213</v>
       </c>
       <c r="O21">
-        <v>0.9987559901702134</v>
+        <v>0.9975770725960164</v>
       </c>
       <c r="P21">
-        <v>0.9994230414378745</v>
+        <v>0.9986852784972239</v>
       </c>
       <c r="Q21">
-        <v>0.9994230414378745</v>
+        <v>0.9986852784972239</v>
       </c>
       <c r="R21">
-        <v>0.9996820476459185</v>
+        <v>0.998723842189575</v>
       </c>
       <c r="S21">
-        <v>0.9996820476459185</v>
+        <v>0.998723842189575</v>
       </c>
       <c r="T21">
-        <v>1.000090155496585</v>
+        <v>1.000975306574139</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.003903076609905</v>
+        <v>1.030150620244445</v>
       </c>
       <c r="D22">
-        <v>0.992809548618002</v>
+        <v>0.9905391637916398</v>
       </c>
       <c r="E22">
-        <v>1.010352991484143</v>
+        <v>0.9966652047738679</v>
       </c>
       <c r="F22">
-        <v>1.002222580988996</v>
+        <v>1.002187070740782</v>
       </c>
       <c r="G22">
-        <v>0.9885302179806938</v>
+        <v>0.9889728057219788</v>
       </c>
       <c r="H22">
-        <v>1.002212614289804</v>
+        <v>1.00548110644225</v>
       </c>
       <c r="I22">
-        <v>1.010352991484143</v>
+        <v>0.9966652047738679</v>
       </c>
       <c r="J22">
-        <v>0.9885302179806938</v>
+        <v>0.9889728057219788</v>
       </c>
       <c r="K22">
-        <v>1.010352991484143</v>
+        <v>0.9966652047738679</v>
       </c>
       <c r="L22">
-        <v>1.002212614289804</v>
+        <v>1.00548110644225</v>
       </c>
       <c r="M22">
-        <v>0.995371416135249</v>
+        <v>0.9972269560821143</v>
       </c>
       <c r="N22">
-        <v>0.995371416135249</v>
+        <v>0.9972269560821143</v>
       </c>
       <c r="O22">
-        <v>0.9945174602961666</v>
+        <v>0.9949976919852895</v>
       </c>
       <c r="P22">
-        <v>1.00036527458488</v>
+        <v>0.9970397056460322</v>
       </c>
       <c r="Q22">
-        <v>1.00036527458488</v>
+        <v>0.9970397056460323</v>
       </c>
       <c r="R22">
-        <v>1.002862203809696</v>
+        <v>0.9969460804279912</v>
       </c>
       <c r="S22">
-        <v>1.002862203809696</v>
+        <v>0.9969460804279912</v>
       </c>
       <c r="T22">
-        <v>1.000005171661924</v>
+        <v>1.002332661952494</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.046294649386417</v>
+      </c>
+      <c r="D23">
+        <v>0.9838876567903786</v>
+      </c>
+      <c r="E23">
+        <v>0.9964566157058424</v>
+      </c>
+      <c r="F23">
+        <v>1.004189357340551</v>
+      </c>
+      <c r="G23">
+        <v>0.9806026977869738</v>
+      </c>
+      <c r="H23">
+        <v>1.009145096807521</v>
+      </c>
+      <c r="I23">
+        <v>0.9964566157058424</v>
+      </c>
+      <c r="J23">
+        <v>0.9806026977869738</v>
+      </c>
+      <c r="K23">
+        <v>0.9964566157058424</v>
+      </c>
+      <c r="L23">
+        <v>1.009145096807521</v>
+      </c>
+      <c r="M23">
+        <v>0.9948738972972473</v>
+      </c>
+      <c r="N23">
+        <v>0.9948738972972473</v>
+      </c>
+      <c r="O23">
+        <v>0.9912118171282911</v>
+      </c>
+      <c r="P23">
+        <v>0.9954014701001124</v>
+      </c>
+      <c r="Q23">
+        <v>0.9954014701001123</v>
+      </c>
+      <c r="R23">
+        <v>0.9956652565015448</v>
+      </c>
+      <c r="S23">
+        <v>0.9956652565015448</v>
+      </c>
+      <c r="T23">
+        <v>1.003429345636281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.391590026413473</v>
+      </c>
+      <c r="D24">
+        <v>1.151266502159159</v>
+      </c>
+      <c r="E24">
+        <v>1.306560201704678</v>
+      </c>
+      <c r="F24">
+        <v>0.954542229572208</v>
+      </c>
+      <c r="G24">
+        <v>1.01671927385909</v>
+      </c>
+      <c r="H24">
+        <v>0.8043992868324136</v>
+      </c>
+      <c r="I24">
+        <v>1.306560201704678</v>
+      </c>
+      <c r="J24">
+        <v>1.01671927385909</v>
+      </c>
+      <c r="K24">
+        <v>1.306560201704678</v>
+      </c>
+      <c r="L24">
+        <v>0.8043992868324136</v>
+      </c>
+      <c r="M24">
+        <v>0.9105592803457518</v>
+      </c>
+      <c r="N24">
+        <v>0.9105592803457518</v>
+      </c>
+      <c r="O24">
+        <v>0.9907950209502209</v>
+      </c>
+      <c r="P24">
+        <v>1.042559587465394</v>
+      </c>
+      <c r="Q24">
+        <v>1.042559587465394</v>
+      </c>
+      <c r="R24">
+        <v>1.108559741025215</v>
+      </c>
+      <c r="S24">
+        <v>1.108559741025215</v>
+      </c>
+      <c r="T24">
+        <v>0.9375129200901703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.10316405772239</v>
+      </c>
+      <c r="D25">
+        <v>1.026463649762425</v>
+      </c>
+      <c r="E25">
+        <v>0.8282460588397216</v>
+      </c>
+      <c r="F25">
+        <v>0.9803016238526725</v>
+      </c>
+      <c r="G25">
+        <v>1.220092684267637</v>
+      </c>
+      <c r="H25">
+        <v>1.045602827429533</v>
+      </c>
+      <c r="I25">
+        <v>0.8282460588397216</v>
+      </c>
+      <c r="J25">
+        <v>1.220092684267637</v>
+      </c>
+      <c r="K25">
+        <v>0.8282460588397216</v>
+      </c>
+      <c r="L25">
+        <v>1.045602827429533</v>
+      </c>
+      <c r="M25">
+        <v>1.132847755848585</v>
+      </c>
+      <c r="N25">
+        <v>1.132847755848585</v>
+      </c>
+      <c r="O25">
+        <v>1.097386387153199</v>
+      </c>
+      <c r="P25">
+        <v>1.031313856845631</v>
+      </c>
+      <c r="Q25">
+        <v>1.031313856845631</v>
+      </c>
+      <c r="R25">
+        <v>0.9805469073441535</v>
+      </c>
+      <c r="S25">
+        <v>0.9805469073441535</v>
+      </c>
+      <c r="T25">
+        <v>1.03397848364573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.3916032350935442</v>
+      </c>
+      <c r="D26">
+        <v>1.15140892260306</v>
+      </c>
+      <c r="E26">
+        <v>1.30647241442659</v>
+      </c>
+      <c r="F26">
+        <v>0.9547365632262481</v>
+      </c>
+      <c r="G26">
+        <v>1.015944378849625</v>
+      </c>
+      <c r="H26">
+        <v>0.8045724868653493</v>
+      </c>
+      <c r="I26">
+        <v>1.30647241442659</v>
+      </c>
+      <c r="J26">
+        <v>1.015944378849625</v>
+      </c>
+      <c r="K26">
+        <v>1.30647241442659</v>
+      </c>
+      <c r="L26">
+        <v>0.8045724868653493</v>
+      </c>
+      <c r="M26">
+        <v>0.910258432857487</v>
+      </c>
+      <c r="N26">
+        <v>0.910258432857487</v>
+      </c>
+      <c r="O26">
+        <v>0.9906419294393446</v>
+      </c>
+      <c r="P26">
+        <v>1.042329760047188</v>
+      </c>
+      <c r="Q26">
+        <v>1.042329760047188</v>
+      </c>
+      <c r="R26">
+        <v>1.108365423642038</v>
+      </c>
+      <c r="S26">
+        <v>1.108365423642038</v>
+      </c>
+      <c r="T26">
+        <v>0.937456333510736</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.103210607310078</v>
+      </c>
+      <c r="D27">
+        <v>1.02632792105019</v>
+      </c>
+      <c r="E27">
+        <v>0.8282660897528031</v>
+      </c>
+      <c r="F27">
+        <v>0.980189335457885</v>
+      </c>
+      <c r="G27">
+        <v>1.220618036484302</v>
+      </c>
+      <c r="H27">
+        <v>1.045450183156155</v>
+      </c>
+      <c r="I27">
+        <v>0.8282660897528031</v>
+      </c>
+      <c r="J27">
+        <v>1.220618036484302</v>
+      </c>
+      <c r="K27">
+        <v>0.8282660897528031</v>
+      </c>
+      <c r="L27">
+        <v>1.045450183156155</v>
+      </c>
+      <c r="M27">
+        <v>1.133034109820228</v>
+      </c>
+      <c r="N27">
+        <v>1.133034109820228</v>
+      </c>
+      <c r="O27">
+        <v>1.097465380230215</v>
+      </c>
+      <c r="P27">
+        <v>1.031444769797753</v>
+      </c>
+      <c r="Q27">
+        <v>1.031444769797753</v>
+      </c>
+      <c r="R27">
+        <v>0.9806500997865156</v>
+      </c>
+      <c r="S27">
+        <v>0.9806500997865156</v>
+      </c>
+      <c r="T27">
+        <v>1.034010362201902</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.008193083831203</v>
+      </c>
+      <c r="D28">
+        <v>0.5518812590135163</v>
+      </c>
+      <c r="E28">
+        <v>1.607413142963149</v>
+      </c>
+      <c r="F28">
+        <v>1.212454595646334</v>
+      </c>
+      <c r="G28">
+        <v>0.2614080107488265</v>
+      </c>
+      <c r="H28">
+        <v>1.082679454719909</v>
+      </c>
+      <c r="I28">
+        <v>1.607413142963149</v>
+      </c>
+      <c r="J28">
+        <v>0.2614080107488265</v>
+      </c>
+      <c r="K28">
+        <v>1.607413142963149</v>
+      </c>
+      <c r="L28">
+        <v>1.082679454719909</v>
+      </c>
+      <c r="M28">
+        <v>0.672043732734368</v>
+      </c>
+      <c r="N28">
+        <v>0.672043732734368</v>
+      </c>
+      <c r="O28">
+        <v>0.6319895748274175</v>
+      </c>
+      <c r="P28">
+        <v>0.9838335361439615</v>
+      </c>
+      <c r="Q28">
+        <v>0.9838335361439615</v>
+      </c>
+      <c r="R28">
+        <v>1.139728437848758</v>
+      </c>
+      <c r="S28">
+        <v>1.139728437848758</v>
+      </c>
+      <c r="T28">
+        <v>0.9540049244871561</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.153586793395633</v>
+      </c>
+      <c r="D29">
+        <v>0.649427987047165</v>
+      </c>
+      <c r="E29">
+        <v>1.384130611583698</v>
+      </c>
+      <c r="F29">
+        <v>1.157364863224381</v>
+      </c>
+      <c r="G29">
+        <v>0.4428554325767077</v>
+      </c>
+      <c r="H29">
+        <v>1.087910426135959</v>
+      </c>
+      <c r="I29">
+        <v>1.384130611583698</v>
+      </c>
+      <c r="J29">
+        <v>0.4428554325767077</v>
+      </c>
+      <c r="K29">
+        <v>1.384130611583698</v>
+      </c>
+      <c r="L29">
+        <v>1.087910426135959</v>
+      </c>
+      <c r="M29">
+        <v>0.7653829293563332</v>
+      </c>
+      <c r="N29">
+        <v>0.7653829293563332</v>
+      </c>
+      <c r="O29">
+        <v>0.7267312819199439</v>
+      </c>
+      <c r="P29">
+        <v>0.9716321567654548</v>
+      </c>
+      <c r="Q29">
+        <v>0.9716321567654548</v>
+      </c>
+      <c r="R29">
+        <v>1.074756770470016</v>
+      </c>
+      <c r="S29">
+        <v>1.074756770470016</v>
+      </c>
+      <c r="T29">
+        <v>0.9792126856605905</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.438062799893042</v>
+      </c>
+      <c r="D30">
+        <v>0.8447067885815175</v>
+      </c>
+      <c r="E30">
+        <v>0.9406506839354776</v>
+      </c>
+      <c r="F30">
+        <v>1.047567206713403</v>
+      </c>
+      <c r="G30">
+        <v>0.8051725986453059</v>
+      </c>
+      <c r="H30">
+        <v>1.097673051239215</v>
+      </c>
+      <c r="I30">
+        <v>0.9406506839354776</v>
+      </c>
+      <c r="J30">
+        <v>0.8051725986453059</v>
+      </c>
+      <c r="K30">
+        <v>0.9406506839354776</v>
+      </c>
+      <c r="L30">
+        <v>1.097673051239215</v>
+      </c>
+      <c r="M30">
+        <v>0.9514228249422605</v>
+      </c>
+      <c r="N30">
+        <v>0.9514228249422605</v>
+      </c>
+      <c r="O30">
+        <v>0.9158508128220127</v>
+      </c>
+      <c r="P30">
+        <v>0.9478321112733328</v>
+      </c>
+      <c r="Q30">
+        <v>0.9478321112733328</v>
+      </c>
+      <c r="R30">
+        <v>0.946036754438869</v>
+      </c>
+      <c r="S30">
+        <v>0.946036754438869</v>
+      </c>
+      <c r="T30">
+        <v>1.028972188167993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.55406177148059</v>
+      </c>
+      <c r="D31">
+        <v>0.8311093605090051</v>
+      </c>
+      <c r="E31">
+        <v>0.898309651208208</v>
+      </c>
+      <c r="F31">
+        <v>1.042235293896721</v>
+      </c>
+      <c r="G31">
+        <v>0.8437027997907106</v>
+      </c>
+      <c r="H31">
+        <v>1.109111497277473</v>
+      </c>
+      <c r="I31">
+        <v>0.898309651208208</v>
+      </c>
+      <c r="J31">
+        <v>0.8437027997907106</v>
+      </c>
+      <c r="K31">
+        <v>0.898309651208208</v>
+      </c>
+      <c r="L31">
+        <v>1.109111497277473</v>
+      </c>
+      <c r="M31">
+        <v>0.9764071485340917</v>
+      </c>
+      <c r="N31">
+        <v>0.9764071485340917</v>
+      </c>
+      <c r="O31">
+        <v>0.9279745525257295</v>
+      </c>
+      <c r="P31">
+        <v>0.9503746494254638</v>
+      </c>
+      <c r="Q31">
+        <v>0.9503746494254638</v>
+      </c>
+      <c r="R31">
+        <v>0.9373583998711499</v>
+      </c>
+      <c r="S31">
+        <v>0.9373583998711499</v>
+      </c>
+      <c r="T31">
+        <v>1.046421729027118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.865554257671233</v>
+      </c>
+      <c r="D32">
+        <v>0.4535634357534244</v>
+      </c>
+      <c r="E32">
+        <v>1.831692875342466</v>
+      </c>
+      <c r="F32">
+        <v>1.267167810958904</v>
+      </c>
+      <c r="G32">
+        <v>0.07954126379452052</v>
+      </c>
+      <c r="H32">
+        <v>1.078385887671232</v>
+      </c>
+      <c r="I32">
+        <v>1.831692875342466</v>
+      </c>
+      <c r="J32">
+        <v>0.07954126379452052</v>
+      </c>
+      <c r="K32">
+        <v>1.831692875342466</v>
+      </c>
+      <c r="L32">
+        <v>1.078385887671232</v>
+      </c>
+      <c r="M32">
+        <v>0.5789635757328764</v>
+      </c>
+      <c r="N32">
+        <v>0.5789635757328764</v>
+      </c>
+      <c r="O32">
+        <v>0.5371635290730591</v>
+      </c>
+      <c r="P32">
+        <v>0.9965400089360731</v>
+      </c>
+      <c r="Q32">
+        <v>0.9965400089360731</v>
+      </c>
+      <c r="R32">
+        <v>1.205328225537671</v>
+      </c>
+      <c r="S32">
+        <v>1.205328225537671</v>
+      </c>
+      <c r="T32">
+        <v>0.9293175885319634</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.537342276842106</v>
+      </c>
+      <c r="D33">
+        <v>0.805558392368421</v>
+      </c>
+      <c r="E33">
+        <v>0.9594421115789475</v>
+      </c>
+      <c r="F33">
+        <v>1.047487644736842</v>
+      </c>
+      <c r="G33">
+        <v>0.7787013652052629</v>
+      </c>
+      <c r="H33">
+        <v>1.114595295789474</v>
+      </c>
+      <c r="I33">
+        <v>0.9594421115789475</v>
+      </c>
+      <c r="J33">
+        <v>0.7787013652052629</v>
+      </c>
+      <c r="K33">
+        <v>0.9594421115789475</v>
+      </c>
+      <c r="L33">
+        <v>1.114595295789474</v>
+      </c>
+      <c r="M33">
+        <v>0.9466483304973683</v>
+      </c>
+      <c r="N33">
+        <v>0.9466483304973683</v>
+      </c>
+      <c r="O33">
+        <v>0.8996183511210525</v>
+      </c>
+      <c r="P33">
+        <v>0.9509129241912281</v>
+      </c>
+      <c r="Q33">
+        <v>0.9509129241912279</v>
+      </c>
+      <c r="R33">
+        <v>0.9530452210381578</v>
+      </c>
+      <c r="S33">
+        <v>0.9530452210381578</v>
+      </c>
+      <c r="T33">
+        <v>1.040521181086842</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.537340804210527</v>
+      </c>
+      <c r="D34">
+        <v>0.8055669083157895</v>
+      </c>
+      <c r="E34">
+        <v>0.9594303826315791</v>
+      </c>
+      <c r="F34">
+        <v>1.047483905263158</v>
+      </c>
+      <c r="G34">
+        <v>0.7787118512052631</v>
+      </c>
+      <c r="H34">
+        <v>1.114595711578947</v>
+      </c>
+      <c r="I34">
+        <v>0.9594303826315791</v>
+      </c>
+      <c r="J34">
+        <v>0.7787118512052631</v>
+      </c>
+      <c r="K34">
+        <v>0.9594303826315791</v>
+      </c>
+      <c r="L34">
+        <v>1.114595711578947</v>
+      </c>
+      <c r="M34">
+        <v>0.9466537813921052</v>
+      </c>
+      <c r="N34">
+        <v>0.9466537813921052</v>
+      </c>
+      <c r="O34">
+        <v>0.8996248237</v>
+      </c>
+      <c r="P34">
+        <v>0.9509126484719298</v>
+      </c>
+      <c r="Q34">
+        <v>0.9509126484719298</v>
+      </c>
+      <c r="R34">
+        <v>0.9530420820118422</v>
+      </c>
+      <c r="S34">
+        <v>0.9530420820118422</v>
+      </c>
+      <c r="T34">
+        <v>1.040521593867544</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>3.301068799591222</v>
+      </c>
+      <c r="D35">
+        <v>0.4392847710860305</v>
+      </c>
+      <c r="E35">
+        <v>0.574666152838738</v>
+      </c>
+      <c r="F35">
+        <v>1.08612150136265</v>
+      </c>
+      <c r="G35">
+        <v>0.4065898688589696</v>
+      </c>
+      <c r="H35">
+        <v>1.349753758263831</v>
+      </c>
+      <c r="I35">
+        <v>0.574666152838738</v>
+      </c>
+      <c r="J35">
+        <v>0.4065898688589696</v>
+      </c>
+      <c r="K35">
+        <v>0.574666152838738</v>
+      </c>
+      <c r="L35">
+        <v>1.349753758263831</v>
+      </c>
+      <c r="M35">
+        <v>0.8781718135614002</v>
+      </c>
+      <c r="N35">
+        <v>0.8781718135614002</v>
+      </c>
+      <c r="O35">
+        <v>0.7318761327362769</v>
+      </c>
+      <c r="P35">
+        <v>0.7770032599871795</v>
+      </c>
+      <c r="Q35">
+        <v>0.7770032599871795</v>
+      </c>
+      <c r="R35">
+        <v>0.7264189832000691</v>
+      </c>
+      <c r="S35">
+        <v>0.7264189832000691</v>
+      </c>
+      <c r="T35">
+        <v>1.19291414200024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.002998457945122</v>
+      </c>
+      <c r="D36">
+        <v>1.000186111632075</v>
+      </c>
+      <c r="E36">
+        <v>0.9984726366914675</v>
+      </c>
+      <c r="F36">
+        <v>0.9995875833144444</v>
+      </c>
+      <c r="G36">
+        <v>1.000731204527895</v>
+      </c>
+      <c r="H36">
+        <v>1.000318015974913</v>
+      </c>
+      <c r="I36">
+        <v>0.9984726366914675</v>
+      </c>
+      <c r="J36">
+        <v>1.000731204527895</v>
+      </c>
+      <c r="K36">
+        <v>0.9984726366914675</v>
+      </c>
+      <c r="L36">
+        <v>1.000318015974913</v>
+      </c>
+      <c r="M36">
+        <v>1.000524610251404</v>
+      </c>
+      <c r="N36">
+        <v>1.000524610251404</v>
+      </c>
+      <c r="O36">
+        <v>1.000411777378294</v>
+      </c>
+      <c r="P36">
+        <v>0.9998406190647585</v>
+      </c>
+      <c r="Q36">
+        <v>0.9998406190647584</v>
+      </c>
+      <c r="R36">
+        <v>0.9994986234714357</v>
+      </c>
+      <c r="S36">
+        <v>0.9994986234714357</v>
+      </c>
+      <c r="T36">
+        <v>1.00038233501432</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.003280527375398</v>
+      </c>
+      <c r="D37">
+        <v>0.9984579124670675</v>
+      </c>
+      <c r="E37">
+        <v>1.000459066270051</v>
+      </c>
+      <c r="F37">
+        <v>1.000533368823424</v>
+      </c>
+      <c r="G37">
+        <v>0.9976229916163222</v>
+      </c>
+      <c r="H37">
+        <v>1.000187066427251</v>
+      </c>
+      <c r="I37">
+        <v>1.000459066270051</v>
+      </c>
+      <c r="J37">
+        <v>0.9976229916163222</v>
+      </c>
+      <c r="K37">
+        <v>1.000459066270051</v>
+      </c>
+      <c r="L37">
+        <v>1.000187066427251</v>
+      </c>
+      <c r="M37">
+        <v>0.9989050290217865</v>
+      </c>
+      <c r="N37">
+        <v>0.9989050290217865</v>
+      </c>
+      <c r="O37">
+        <v>0.9987559901702134</v>
+      </c>
+      <c r="P37">
+        <v>0.9994230414378745</v>
+      </c>
+      <c r="Q37">
+        <v>0.9994230414378745</v>
+      </c>
+      <c r="R37">
+        <v>0.9996820476459185</v>
+      </c>
+      <c r="S37">
+        <v>0.9996820476459185</v>
+      </c>
+      <c r="T37">
+        <v>1.000090155496585</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.003903076609905</v>
+      </c>
+      <c r="D38">
+        <v>0.992809548618002</v>
+      </c>
+      <c r="E38">
+        <v>1.010352991484143</v>
+      </c>
+      <c r="F38">
+        <v>1.002222580988996</v>
+      </c>
+      <c r="G38">
+        <v>0.9885302179806938</v>
+      </c>
+      <c r="H38">
+        <v>1.002212614289804</v>
+      </c>
+      <c r="I38">
+        <v>1.010352991484143</v>
+      </c>
+      <c r="J38">
+        <v>0.9885302179806938</v>
+      </c>
+      <c r="K38">
+        <v>1.010352991484143</v>
+      </c>
+      <c r="L38">
+        <v>1.002212614289804</v>
+      </c>
+      <c r="M38">
+        <v>0.995371416135249</v>
+      </c>
+      <c r="N38">
+        <v>0.995371416135249</v>
+      </c>
+      <c r="O38">
+        <v>0.9945174602961666</v>
+      </c>
+      <c r="P38">
+        <v>1.00036527458488</v>
+      </c>
+      <c r="Q38">
+        <v>1.00036527458488</v>
+      </c>
+      <c r="R38">
+        <v>1.002862203809696</v>
+      </c>
+      <c r="S38">
+        <v>1.002862203809696</v>
+      </c>
+      <c r="T38">
+        <v>1.000005171661924</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.998095724139536</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9830003949226745</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.026875273058584</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.007566793252644</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9711474564797683</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.002829490535262</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.026875273058584</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9711474564797683</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.026875273058584</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.002829490535262</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9869884735075152</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9869884735075152</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.985659113979235</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.000284073357872</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000284073357872</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.00693187328305</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.00693187328305</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.998252522064745</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.031056937486022</v>
+      </c>
+      <c r="D40">
+        <v>0.9303017757707843</v>
+      </c>
+      <c r="E40">
+        <v>1.080091102274713</v>
+      </c>
+      <c r="F40">
+        <v>1.031130891382619</v>
+      </c>
+      <c r="G40">
+        <v>0.8722435302626421</v>
+      </c>
+      <c r="H40">
+        <v>1.017365492984175</v>
+      </c>
+      <c r="I40">
+        <v>1.080091102274713</v>
+      </c>
+      <c r="J40">
+        <v>0.8722435302626421</v>
+      </c>
+      <c r="K40">
+        <v>1.080091102274713</v>
+      </c>
+      <c r="L40">
+        <v>1.017365492984175</v>
+      </c>
+      <c r="M40">
+        <v>0.9448045116234086</v>
+      </c>
+      <c r="N40">
+        <v>0.9448045116234086</v>
+      </c>
+      <c r="O40">
+        <v>0.9399702663392006</v>
+      </c>
+      <c r="P40">
+        <v>0.9899000418405102</v>
+      </c>
+      <c r="Q40">
+        <v>0.9899000418405102</v>
+      </c>
+      <c r="R40">
+        <v>1.012447806949061</v>
+      </c>
+      <c r="S40">
+        <v>1.012447806949061</v>
+      </c>
+      <c r="T40">
+        <v>0.9936982883601595</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9541492654823167</v>
+      </c>
+      <c r="D41">
+        <v>1.038619231347853</v>
+      </c>
+      <c r="E41">
+        <v>0.9901342906529613</v>
+      </c>
+      <c r="F41">
+        <v>0.9816843161224433</v>
+      </c>
+      <c r="G41">
+        <v>1.066790788026702</v>
+      </c>
+      <c r="H41">
+        <v>0.977248154968173</v>
+      </c>
+      <c r="I41">
+        <v>0.9901342906529613</v>
+      </c>
+      <c r="J41">
+        <v>1.066790788026702</v>
+      </c>
+      <c r="K41">
+        <v>0.9901342906529613</v>
+      </c>
+      <c r="L41">
+        <v>0.977248154968173</v>
+      </c>
+      <c r="M41">
+        <v>1.022019471497437</v>
+      </c>
+      <c r="N41">
+        <v>1.022019471497437</v>
+      </c>
+      <c r="O41">
+        <v>1.027552724780909</v>
+      </c>
+      <c r="P41">
+        <v>1.011391077882612</v>
+      </c>
+      <c r="Q41">
+        <v>1.011391077882612</v>
+      </c>
+      <c r="R41">
+        <v>1.006076881075199</v>
+      </c>
+      <c r="S41">
+        <v>1.006076881075199</v>
+      </c>
+      <c r="T41">
+        <v>1.001437674433408</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.12602324586549</v>
+      </c>
+      <c r="D42">
+        <v>0.7404360877885134</v>
+      </c>
+      <c r="E42">
+        <v>1.275167985840641</v>
+      </c>
+      <c r="F42">
+        <v>1.124168452782</v>
+      </c>
+      <c r="G42">
+        <v>0.4837187967147488</v>
+      </c>
+      <c r="H42">
+        <v>1.066113568877578</v>
+      </c>
+      <c r="I42">
+        <v>1.275167985840641</v>
+      </c>
+      <c r="J42">
+        <v>0.4837187967147488</v>
+      </c>
+      <c r="K42">
+        <v>1.275167985840641</v>
+      </c>
+      <c r="L42">
+        <v>1.066113568877578</v>
+      </c>
+      <c r="M42">
+        <v>0.7749161827961631</v>
+      </c>
+      <c r="N42">
+        <v>0.7749161827961631</v>
+      </c>
+      <c r="O42">
+        <v>0.7634228177936132</v>
+      </c>
+      <c r="P42">
+        <v>0.9416667838109891</v>
+      </c>
+      <c r="Q42">
+        <v>0.9416667838109891</v>
+      </c>
+      <c r="R42">
+        <v>1.025042084318402</v>
+      </c>
+      <c r="S42">
+        <v>1.025042084318402</v>
+      </c>
+      <c r="T42">
+        <v>0.9692713563114951</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW15.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.034507640599115</v>
+        <v>1.010418495970393</v>
       </c>
       <c r="D3">
-        <v>0.9621776914201268</v>
+        <v>0.996950060521566</v>
       </c>
       <c r="E3">
-        <v>1.003981419282098</v>
+        <v>0.9986012312704768</v>
       </c>
       <c r="F3">
-        <v>1.034507640599115</v>
+        <v>1.000666471088441</v>
       </c>
       <c r="G3">
-        <v>0.9968045737909879</v>
+        <v>0.9964665022589224</v>
       </c>
       <c r="H3">
-        <v>0.9761819341352401</v>
+        <v>1.001831092524203</v>
       </c>
       <c r="I3">
-        <v>1.011317757970617</v>
+        <v>0.9986012312704768</v>
       </c>
       <c r="J3">
-        <v>0.9621776914201268</v>
+        <v>0.9964665022589224</v>
       </c>
       <c r="K3">
-        <v>1.034507640599115</v>
+        <v>0.9986012312704768</v>
       </c>
       <c r="L3">
-        <v>1.003981419282098</v>
+        <v>1.001831092524203</v>
       </c>
       <c r="M3">
-        <v>0.9830795553511122</v>
+        <v>0.9991487973915629</v>
       </c>
       <c r="N3">
-        <v>0.9830795553511122</v>
+        <v>0.9991487973915629</v>
       </c>
       <c r="O3">
-        <v>0.9807803482791549</v>
+        <v>0.998415885101564</v>
       </c>
       <c r="P3">
-        <v>1.00022225043378</v>
+        <v>0.9989662753512009</v>
       </c>
       <c r="Q3">
-        <v>1.00022225043378</v>
+        <v>0.9989662753512007</v>
       </c>
       <c r="R3">
-        <v>1.008793597975113</v>
+        <v>0.9988750143310198</v>
       </c>
       <c r="S3">
-        <v>1.008793597975113</v>
+        <v>0.9988750143310198</v>
       </c>
       <c r="T3">
-        <v>0.9974951695330306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000822308939</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.065904457492124</v>
+        <v>1.031056937486022</v>
       </c>
       <c r="D4">
-        <v>0.9258221223941168</v>
+        <v>0.9303017757707843</v>
       </c>
       <c r="E4">
-        <v>1.007466558154865</v>
+        <v>1.080091102274713</v>
       </c>
       <c r="F4">
-        <v>1.065904457492124</v>
+        <v>1.031130891382619</v>
       </c>
       <c r="G4">
-        <v>0.9947849456382669</v>
+        <v>0.8722435302626421</v>
       </c>
       <c r="H4">
-        <v>0.9544368470418514</v>
+        <v>1.017365492984175</v>
       </c>
       <c r="I4">
-        <v>1.021633333614557</v>
+        <v>1.080091102274713</v>
       </c>
       <c r="J4">
-        <v>0.9258221223941168</v>
+        <v>0.8722435302626421</v>
       </c>
       <c r="K4">
-        <v>1.065904457492124</v>
+        <v>1.080091102274713</v>
       </c>
       <c r="L4">
-        <v>1.007466558154865</v>
+        <v>1.017365492984175</v>
       </c>
       <c r="M4">
-        <v>0.9666443402744909</v>
+        <v>0.9448045116234086</v>
       </c>
       <c r="N4">
-        <v>0.9666443402744909</v>
+        <v>0.9448045116234086</v>
       </c>
       <c r="O4">
-        <v>0.962575175863611</v>
+        <v>0.9399702663392006</v>
       </c>
       <c r="P4">
-        <v>0.9997310460137019</v>
+        <v>0.9899000418405102</v>
       </c>
       <c r="Q4">
-        <v>0.9997310460137019</v>
+        <v>0.9899000418405102</v>
       </c>
       <c r="R4">
-        <v>1.016274398883307</v>
+        <v>1.012447806949061</v>
       </c>
       <c r="S4">
-        <v>1.016274398883307</v>
+        <v>1.012447806949061</v>
       </c>
       <c r="T4">
-        <v>0.9950080440559637</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9936982883601595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.124235184701364</v>
+        <v>1.522128329654181</v>
       </c>
       <c r="D5">
-        <v>0.8612893443741583</v>
+        <v>0.8160271044474058</v>
       </c>
       <c r="E5">
-        <v>1.015535806879807</v>
+        <v>0.9398207549351593</v>
       </c>
       <c r="F5">
-        <v>1.124235184701364</v>
+        <v>1.053893213559081</v>
       </c>
       <c r="G5">
-        <v>0.993907671353221</v>
+        <v>0.7703683545542516</v>
       </c>
       <c r="H5">
-        <v>0.9125441699988421</v>
+        <v>1.110175025389045</v>
       </c>
       <c r="I5">
-        <v>1.041187008536568</v>
+        <v>0.9398207549351593</v>
       </c>
       <c r="J5">
-        <v>0.8612893443741583</v>
+        <v>0.7703683545542516</v>
       </c>
       <c r="K5">
-        <v>1.124235184701364</v>
+        <v>0.9398207549351593</v>
       </c>
       <c r="L5">
-        <v>1.015535806879807</v>
+        <v>1.110175025389045</v>
       </c>
       <c r="M5">
-        <v>0.9384125756269828</v>
+        <v>0.9402716899716483</v>
       </c>
       <c r="N5">
-        <v>0.9384125756269828</v>
+        <v>0.9402716899716483</v>
       </c>
       <c r="O5">
-        <v>0.9297897737509359</v>
+        <v>0.8988568281302342</v>
       </c>
       <c r="P5">
-        <v>1.000353445318443</v>
+        <v>0.9401213782928187</v>
       </c>
       <c r="Q5">
-        <v>1.000353445318443</v>
+        <v>0.9401213782928187</v>
       </c>
       <c r="R5">
-        <v>1.031323880164174</v>
+        <v>0.9400462224534039</v>
       </c>
       <c r="S5">
-        <v>1.031323880164174</v>
+        <v>0.9400462224534039</v>
       </c>
       <c r="T5">
-        <v>0.9914498643073267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.035402130423188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.187964322308887</v>
+        <v>3.301068799591222</v>
       </c>
       <c r="D6">
-        <v>0.8022216738521741</v>
+        <v>0.4392847710860305</v>
       </c>
       <c r="E6">
-        <v>1.033573696231616</v>
+        <v>0.574666152838738</v>
       </c>
       <c r="F6">
-        <v>1.187964322308887</v>
+        <v>1.08612150136265</v>
       </c>
       <c r="G6">
-        <v>0.9826482963403386</v>
+        <v>0.4065898688589696</v>
       </c>
       <c r="H6">
-        <v>0.8684044770482082</v>
+        <v>1.349753758263831</v>
       </c>
       <c r="I6">
-        <v>1.06223651254781</v>
+        <v>0.574666152838738</v>
       </c>
       <c r="J6">
-        <v>0.8022216738521741</v>
+        <v>0.4065898688589696</v>
       </c>
       <c r="K6">
-        <v>1.187964322308887</v>
+        <v>0.574666152838738</v>
       </c>
       <c r="L6">
-        <v>1.033573696231616</v>
+        <v>1.349753758263831</v>
       </c>
       <c r="M6">
-        <v>0.9178976850418951</v>
+        <v>0.8781718135614002</v>
       </c>
       <c r="N6">
-        <v>0.9178976850418951</v>
+        <v>0.8781718135614002</v>
       </c>
       <c r="O6">
-        <v>0.9013999490439994</v>
+        <v>0.7318761327362769</v>
       </c>
       <c r="P6">
-        <v>1.007919897464226</v>
+        <v>0.7770032599871795</v>
       </c>
       <c r="Q6">
-        <v>1.007919897464226</v>
+        <v>0.7770032599871795</v>
       </c>
       <c r="R6">
-        <v>1.052931003675391</v>
+        <v>0.7264189832000691</v>
       </c>
       <c r="S6">
-        <v>1.052931003675391</v>
+        <v>0.7264189832000691</v>
       </c>
       <c r="T6">
-        <v>0.9895081630548389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.19291414200024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999328622440724</v>
+        <v>0.9973847474582913</v>
       </c>
       <c r="D7">
-        <v>0.9987050047500903</v>
+        <v>0.9747135390141256</v>
       </c>
       <c r="E7">
-        <v>1.000711906218698</v>
+        <v>1.035496150284531</v>
       </c>
       <c r="F7">
-        <v>0.999328622440724</v>
+        <v>1.012341879295212</v>
       </c>
       <c r="G7">
-        <v>1.004352664836402</v>
+        <v>0.9571222657082623</v>
       </c>
       <c r="H7">
-        <v>0.9988155175018748</v>
+        <v>1.004520919632398</v>
       </c>
       <c r="I7">
-        <v>1.000221242843203</v>
+        <v>1.035496150284531</v>
       </c>
       <c r="J7">
-        <v>0.9987050047500903</v>
+        <v>0.9571222657082623</v>
       </c>
       <c r="K7">
-        <v>0.999328622440724</v>
+        <v>1.035496150284531</v>
       </c>
       <c r="L7">
-        <v>1.000711906218698</v>
+        <v>1.004520919632398</v>
       </c>
       <c r="M7">
-        <v>0.9997084554843939</v>
+        <v>0.9808215926703302</v>
       </c>
       <c r="N7">
-        <v>0.9997084554843939</v>
+        <v>0.9808215926703302</v>
       </c>
       <c r="O7">
-        <v>0.9994108094902209</v>
+        <v>0.9787855747849287</v>
       </c>
       <c r="P7">
-        <v>0.9995818444698372</v>
+        <v>0.9990464452083971</v>
       </c>
       <c r="Q7">
-        <v>0.9995818444698372</v>
+        <v>0.9990464452083971</v>
       </c>
       <c r="R7">
-        <v>0.9995185389625589</v>
+        <v>1.008158871477431</v>
       </c>
       <c r="S7">
-        <v>0.9995185389625589</v>
+        <v>1.008158871477431</v>
       </c>
       <c r="T7">
-        <v>1.000355826431832</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9969299168988034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9986012312704765</v>
+        <v>1.003280527375398</v>
       </c>
       <c r="D8">
-        <v>0.9964665022589229</v>
+        <v>0.9984579124670675</v>
       </c>
       <c r="E8">
-        <v>1.001831092524203</v>
+        <v>1.000459066270051</v>
       </c>
       <c r="F8">
-        <v>0.9986012312704765</v>
+        <v>1.000533368823424</v>
       </c>
       <c r="G8">
-        <v>1.010418495970392</v>
+        <v>0.9976229916163222</v>
       </c>
       <c r="H8">
-        <v>0.9969500605215661</v>
+        <v>1.000187066427251</v>
       </c>
       <c r="I8">
-        <v>1.00066647108844</v>
+        <v>1.000459066270051</v>
       </c>
       <c r="J8">
-        <v>0.9964665022589229</v>
+        <v>0.9976229916163222</v>
       </c>
       <c r="K8">
-        <v>0.9986012312704765</v>
+        <v>1.000459066270051</v>
       </c>
       <c r="L8">
-        <v>1.001831092524203</v>
+        <v>1.000187066427251</v>
       </c>
       <c r="M8">
-        <v>0.9991487973915631</v>
+        <v>0.9989050290217865</v>
       </c>
       <c r="N8">
-        <v>0.9991487973915631</v>
+        <v>0.9989050290217865</v>
       </c>
       <c r="O8">
-        <v>0.9984158851015641</v>
+        <v>0.9987559901702134</v>
       </c>
       <c r="P8">
-        <v>0.9989662753512009</v>
+        <v>0.9994230414378745</v>
       </c>
       <c r="Q8">
-        <v>0.9989662753512009</v>
+        <v>0.9994230414378745</v>
       </c>
       <c r="R8">
-        <v>0.9988750143310198</v>
+        <v>0.9996820476459185</v>
       </c>
       <c r="S8">
-        <v>0.9988750143310198</v>
+        <v>0.9996820476459185</v>
       </c>
       <c r="T8">
-        <v>1.000822308939</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000090155496585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9988395332666287</v>
+        <v>0.9947849456382666</v>
       </c>
       <c r="D9">
-        <v>0.9946349896618402</v>
+        <v>0.9544368470418514</v>
       </c>
       <c r="E9">
-        <v>1.002581312563202</v>
+        <v>1.065904457492124</v>
       </c>
       <c r="F9">
-        <v>0.9988395332666287</v>
+        <v>1.021633333614557</v>
       </c>
       <c r="G9">
-        <v>1.013123411648214</v>
+        <v>0.9258221223941168</v>
       </c>
       <c r="H9">
-        <v>0.9955149155630064</v>
+        <v>1.007466558154865</v>
       </c>
       <c r="I9">
-        <v>1.001157676741942</v>
+        <v>1.065904457492124</v>
       </c>
       <c r="J9">
-        <v>0.9946349896618402</v>
+        <v>0.9258221223941168</v>
       </c>
       <c r="K9">
-        <v>0.9988395332666287</v>
+        <v>1.065904457492124</v>
       </c>
       <c r="L9">
-        <v>1.002581312563202</v>
+        <v>1.007466558154865</v>
       </c>
       <c r="M9">
-        <v>0.9986081511125213</v>
+        <v>0.9666443402744908</v>
       </c>
       <c r="N9">
-        <v>0.9986081511125213</v>
+        <v>0.9666443402744908</v>
       </c>
       <c r="O9">
-        <v>0.9975770725960164</v>
+        <v>0.962575175863611</v>
       </c>
       <c r="P9">
-        <v>0.9986852784972239</v>
+        <v>0.9997310460137018</v>
       </c>
       <c r="Q9">
-        <v>0.9986852784972239</v>
+        <v>0.9997310460137018</v>
       </c>
       <c r="R9">
-        <v>0.998723842189575</v>
+        <v>1.016274398883307</v>
       </c>
       <c r="S9">
-        <v>0.998723842189575</v>
+        <v>1.016274398883307</v>
       </c>
       <c r="T9">
-        <v>1.000975306574139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9950080440559633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9966652047738681</v>
+        <v>3.355686115950863</v>
       </c>
       <c r="D10">
-        <v>0.9889728057219788</v>
+        <v>0.4298877759610722</v>
       </c>
       <c r="E10">
-        <v>1.00548110644225</v>
+        <v>0.5598411876443362</v>
       </c>
       <c r="F10">
-        <v>0.9966652047738681</v>
+        <v>1.084982273314379</v>
       </c>
       <c r="G10">
-        <v>1.030150620244445</v>
+        <v>0.4191828677399756</v>
       </c>
       <c r="H10">
-        <v>0.9905391637916398</v>
+        <v>1.355015287638207</v>
       </c>
       <c r="I10">
-        <v>1.002187070740782</v>
+        <v>0.5598411876443362</v>
       </c>
       <c r="J10">
-        <v>0.9889728057219788</v>
+        <v>0.4191828677399756</v>
       </c>
       <c r="K10">
-        <v>0.9966652047738681</v>
+        <v>0.5598411876443362</v>
       </c>
       <c r="L10">
-        <v>1.00548110644225</v>
+        <v>1.355015287638207</v>
       </c>
       <c r="M10">
-        <v>0.9972269560821143</v>
+        <v>0.8870990776890914</v>
       </c>
       <c r="N10">
-        <v>0.9972269560821143</v>
+        <v>0.8870990776890914</v>
       </c>
       <c r="O10">
-        <v>0.9949976919852895</v>
+        <v>0.7346953104464182</v>
       </c>
       <c r="P10">
-        <v>0.9970397056460323</v>
+        <v>0.7780131143408396</v>
       </c>
       <c r="Q10">
-        <v>0.9970397056460323</v>
+        <v>0.7780131143408396</v>
       </c>
       <c r="R10">
-        <v>0.9969460804279913</v>
+        <v>0.7234701326667138</v>
       </c>
       <c r="S10">
-        <v>0.9969460804279913</v>
+        <v>0.7234701326667138</v>
       </c>
       <c r="T10">
-        <v>1.002332661952494</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.200765918041472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9964566157058424</v>
+        <v>0.9950272663021317</v>
       </c>
       <c r="D11">
-        <v>0.9806026977869738</v>
+        <v>0.9330147077610987</v>
       </c>
       <c r="E11">
-        <v>1.009145096807521</v>
+        <v>1.105596462689006</v>
       </c>
       <c r="F11">
-        <v>0.9964566157058424</v>
+        <v>1.032029300883617</v>
       </c>
       <c r="G11">
-        <v>1.046294649386417</v>
+        <v>0.868554361315348</v>
       </c>
       <c r="H11">
-        <v>0.9838876567903784</v>
+        <v>1.005229585411211</v>
       </c>
       <c r="I11">
-        <v>1.004189357340551</v>
+        <v>1.105596462689006</v>
       </c>
       <c r="J11">
-        <v>0.9806026977869738</v>
+        <v>0.868554361315348</v>
       </c>
       <c r="K11">
-        <v>0.9964566157058424</v>
+        <v>1.105596462689006</v>
       </c>
       <c r="L11">
-        <v>1.009145096807521</v>
+        <v>1.005229585411211</v>
       </c>
       <c r="M11">
-        <v>0.9948738972972473</v>
+        <v>0.9368919733632795</v>
       </c>
       <c r="N11">
-        <v>0.9948738972972473</v>
+        <v>0.9368919733632795</v>
       </c>
       <c r="O11">
-        <v>0.991211817128291</v>
+        <v>0.9355995514958858</v>
       </c>
       <c r="P11">
-        <v>0.9954014701001124</v>
+        <v>0.9931268031385218</v>
       </c>
       <c r="Q11">
-        <v>0.9954014701001123</v>
+        <v>0.9931268031385218</v>
       </c>
       <c r="R11">
-        <v>0.9956652565015448</v>
+        <v>1.021244218026143</v>
       </c>
       <c r="S11">
-        <v>0.9956652565015448</v>
+        <v>1.021244218026143</v>
       </c>
       <c r="T11">
-        <v>1.00342934563628</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9899086140604022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.306560201704678</v>
+        <v>1.670365295568428</v>
       </c>
       <c r="D12">
-        <v>1.01671927385909</v>
+        <v>0.8163696991189463</v>
       </c>
       <c r="E12">
-        <v>0.8043992868324136</v>
+        <v>0.85557625788421</v>
       </c>
       <c r="F12">
-        <v>1.306560201704678</v>
+        <v>1.039194025957897</v>
       </c>
       <c r="G12">
-        <v>0.3915900264134732</v>
+        <v>0.8484799254045253</v>
       </c>
       <c r="H12">
-        <v>1.151266502159159</v>
+        <v>1.126718751094735</v>
       </c>
       <c r="I12">
-        <v>0.9545422295722082</v>
+        <v>0.85557625788421</v>
       </c>
       <c r="J12">
-        <v>1.01671927385909</v>
+        <v>0.8484799254045253</v>
       </c>
       <c r="K12">
-        <v>1.306560201704678</v>
+        <v>0.85557625788421</v>
       </c>
       <c r="L12">
-        <v>0.8043992868324136</v>
+        <v>1.126718751094735</v>
       </c>
       <c r="M12">
-        <v>0.9105592803457518</v>
+        <v>0.9875993382496302</v>
       </c>
       <c r="N12">
-        <v>0.9105592803457518</v>
+        <v>0.9875993382496302</v>
       </c>
       <c r="O12">
-        <v>0.9907950209502209</v>
+        <v>0.9305227918727356</v>
       </c>
       <c r="P12">
-        <v>1.042559587465394</v>
+        <v>0.9435916447944902</v>
       </c>
       <c r="Q12">
-        <v>1.042559587465394</v>
+        <v>0.94359164479449</v>
       </c>
       <c r="R12">
-        <v>1.108559741025215</v>
+        <v>0.92158779806692</v>
       </c>
       <c r="S12">
-        <v>1.108559741025215</v>
+        <v>0.92158779806692</v>
       </c>
       <c r="T12">
-        <v>0.9375129200901702</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.059450659171457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8282460588397216</v>
+        <v>0.7923763432313975</v>
       </c>
       <c r="D13">
-        <v>1.220092684267637</v>
+        <v>1.123453879740312</v>
       </c>
       <c r="E13">
-        <v>1.045602827429533</v>
+        <v>0.9844258756847879</v>
       </c>
       <c r="F13">
-        <v>0.8282460588397216</v>
+        <v>0.9437640927315561</v>
       </c>
       <c r="G13">
-        <v>1.10316405772239</v>
+        <v>1.262395094995397</v>
       </c>
       <c r="H13">
-        <v>1.026463649762425</v>
+        <v>0.9250734731633052</v>
       </c>
       <c r="I13">
-        <v>0.9803016238526724</v>
+        <v>0.9844258756847879</v>
       </c>
       <c r="J13">
-        <v>1.220092684267637</v>
+        <v>1.262395094995397</v>
       </c>
       <c r="K13">
-        <v>0.8282460588397216</v>
+        <v>0.9844258756847879</v>
       </c>
       <c r="L13">
-        <v>1.045602827429533</v>
+        <v>0.9250734731633052</v>
       </c>
       <c r="M13">
-        <v>1.132847755848585</v>
+        <v>1.093734284079351</v>
       </c>
       <c r="N13">
-        <v>1.132847755848585</v>
+        <v>1.093734284079351</v>
       </c>
       <c r="O13">
-        <v>1.097386387153199</v>
+        <v>1.103640815966338</v>
       </c>
       <c r="P13">
-        <v>1.031313856845631</v>
+        <v>1.05729814794783</v>
       </c>
       <c r="Q13">
-        <v>1.031313856845631</v>
+        <v>1.05729814794783</v>
       </c>
       <c r="R13">
-        <v>0.9805469073441535</v>
+        <v>1.03908007988207</v>
       </c>
       <c r="S13">
-        <v>0.9805469073441535</v>
+        <v>1.03908007988207</v>
       </c>
       <c r="T13">
-        <v>1.03397848364573</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.005248126591126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.30647241442659</v>
+        <v>5.166004400000004</v>
       </c>
       <c r="D14">
-        <v>1.015944378849625</v>
+        <v>0.02988525700000006</v>
       </c>
       <c r="E14">
-        <v>0.8045724868653493</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="F14">
-        <v>1.30647241442659</v>
+        <v>1.1262586</v>
       </c>
       <c r="G14">
-        <v>0.3916032350935443</v>
+        <v>0.001799323199999997</v>
       </c>
       <c r="H14">
-        <v>1.15140892260306</v>
+        <v>1.602552399999997</v>
       </c>
       <c r="I14">
-        <v>0.9547365632262481</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="J14">
-        <v>1.015944378849625</v>
+        <v>0.001799323199999997</v>
       </c>
       <c r="K14">
-        <v>1.30647241442659</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="L14">
-        <v>0.8045724868653493</v>
+        <v>1.602552399999997</v>
       </c>
       <c r="M14">
-        <v>0.910258432857487</v>
+        <v>0.8021758615999985</v>
       </c>
       <c r="N14">
-        <v>0.910258432857487</v>
+        <v>0.8021758615999985</v>
       </c>
       <c r="O14">
-        <v>0.9906419294393446</v>
+        <v>0.5447456600666657</v>
       </c>
       <c r="P14">
-        <v>1.042329760047188</v>
+        <v>0.6060528677333323</v>
       </c>
       <c r="Q14">
-        <v>1.042329760047188</v>
+        <v>0.6060528677333323</v>
       </c>
       <c r="R14">
-        <v>1.108365423642038</v>
+        <v>0.5079913707999992</v>
       </c>
       <c r="S14">
-        <v>1.108365423642038</v>
+        <v>0.5079913707999992</v>
       </c>
       <c r="T14">
-        <v>0.937456333510736</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.356717810033333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8282660897528031</v>
+        <v>0.90819851</v>
       </c>
       <c r="D15">
-        <v>1.220618036484302</v>
+        <v>0.43230995</v>
       </c>
       <c r="E15">
-        <v>1.045450183156155</v>
+        <v>1.9322331</v>
       </c>
       <c r="F15">
-        <v>0.8282660897528031</v>
+        <v>1.2371812</v>
       </c>
       <c r="G15">
-        <v>1.103210607310078</v>
+        <v>0.08280025100000002</v>
       </c>
       <c r="H15">
-        <v>1.02632792105019</v>
+        <v>1.124226</v>
       </c>
       <c r="I15">
-        <v>0.980189335457885</v>
+        <v>1.9322331</v>
       </c>
       <c r="J15">
-        <v>1.220618036484302</v>
+        <v>0.08280025100000002</v>
       </c>
       <c r="K15">
-        <v>0.8282660897528031</v>
+        <v>1.9322331</v>
       </c>
       <c r="L15">
-        <v>1.045450183156155</v>
+        <v>1.124226</v>
       </c>
       <c r="M15">
-        <v>1.133034109820228</v>
+        <v>0.6035131255</v>
       </c>
       <c r="N15">
-        <v>1.133034109820228</v>
+        <v>0.6035131255</v>
       </c>
       <c r="O15">
-        <v>1.097465380230215</v>
+        <v>0.5464454003333333</v>
       </c>
       <c r="P15">
-        <v>1.031444769797753</v>
+        <v>1.046419783666667</v>
       </c>
       <c r="Q15">
-        <v>1.031444769797753</v>
+        <v>1.046419783666667</v>
       </c>
       <c r="R15">
-        <v>0.9806500997865156</v>
+        <v>1.26787311275</v>
       </c>
       <c r="S15">
-        <v>0.9806500997865156</v>
+        <v>1.26787311275</v>
       </c>
       <c r="T15">
-        <v>1.034010362201902</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9528248351666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9984726366914671</v>
+        <v>0.90814186</v>
       </c>
       <c r="D16">
-        <v>1.000731204527896</v>
+        <v>0.43232854</v>
       </c>
       <c r="E16">
-        <v>1.000318015974913</v>
+        <v>1.9322331</v>
       </c>
       <c r="F16">
-        <v>0.9984726366914671</v>
+        <v>1.2371767</v>
       </c>
       <c r="G16">
-        <v>1.002998457945122</v>
+        <v>0.08280964</v>
       </c>
       <c r="H16">
-        <v>1.000186111632075</v>
+        <v>1.1242207</v>
       </c>
       <c r="I16">
-        <v>0.9995875833144443</v>
+        <v>1.9322331</v>
       </c>
       <c r="J16">
-        <v>1.000731204527896</v>
+        <v>0.08280964</v>
       </c>
       <c r="K16">
-        <v>0.9984726366914671</v>
+        <v>1.9322331</v>
       </c>
       <c r="L16">
-        <v>1.000318015974913</v>
+        <v>1.1242207</v>
       </c>
       <c r="M16">
-        <v>1.000524610251404</v>
+        <v>0.60351517</v>
       </c>
       <c r="N16">
-        <v>1.000524610251404</v>
+        <v>0.60351517</v>
       </c>
       <c r="O16">
-        <v>1.000411777378295</v>
+        <v>0.54645296</v>
       </c>
       <c r="P16">
-        <v>0.9998406190647587</v>
+        <v>1.046421146666667</v>
       </c>
       <c r="Q16">
-        <v>0.9998406190647587</v>
+        <v>1.046421146666667</v>
       </c>
       <c r="R16">
-        <v>0.9994986234714358</v>
+        <v>1.267874135</v>
       </c>
       <c r="S16">
-        <v>0.9994986234714358</v>
+        <v>1.267874135</v>
       </c>
       <c r="T16">
-        <v>1.00038233501432</v>
+        <v>0.9528184233333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.00045906627005</v>
+        <v>1.1055703</v>
       </c>
       <c r="D17">
-        <v>0.9976229916163222</v>
+        <v>1.2800924</v>
       </c>
       <c r="E17">
-        <v>1.000187066427251</v>
+        <v>0.31268751</v>
       </c>
       <c r="F17">
-        <v>1.00045906627005</v>
+        <v>0.83709811</v>
       </c>
       <c r="G17">
-        <v>1.003280527375398</v>
+        <v>2.0281538</v>
       </c>
       <c r="H17">
-        <v>0.9984579124670672</v>
+        <v>1.0903891</v>
       </c>
       <c r="I17">
-        <v>1.000533368823424</v>
+        <v>0.31268751</v>
       </c>
       <c r="J17">
-        <v>0.9976229916163222</v>
+        <v>2.0281538</v>
       </c>
       <c r="K17">
-        <v>1.00045906627005</v>
+        <v>0.31268751</v>
       </c>
       <c r="L17">
-        <v>1.000187066427251</v>
+        <v>1.0903891</v>
       </c>
       <c r="M17">
-        <v>0.9989050290217865</v>
+        <v>1.55927145</v>
       </c>
       <c r="N17">
-        <v>0.9989050290217865</v>
+        <v>1.55927145</v>
       </c>
       <c r="O17">
-        <v>0.9987559901702134</v>
+        <v>1.466211766666667</v>
       </c>
       <c r="P17">
-        <v>0.9994230414378743</v>
+        <v>1.14374347</v>
       </c>
       <c r="Q17">
-        <v>0.9994230414378743</v>
+        <v>1.14374347</v>
       </c>
       <c r="R17">
-        <v>0.9996820476459183</v>
+        <v>0.93597948</v>
       </c>
       <c r="S17">
-        <v>0.9996820476459183</v>
+        <v>0.93597948</v>
       </c>
       <c r="T17">
-        <v>1.000090155496585</v>
+        <v>1.108998536666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.010352991484143</v>
+        <v>0.865554257671233</v>
       </c>
       <c r="D18">
-        <v>0.9885302179806942</v>
+        <v>0.4535634357534244</v>
       </c>
       <c r="E18">
-        <v>1.002212614289804</v>
+        <v>1.831692875342466</v>
       </c>
       <c r="F18">
-        <v>1.010352991484143</v>
+        <v>1.267167810958904</v>
       </c>
       <c r="G18">
-        <v>1.003903076609905</v>
+        <v>0.07954126379452052</v>
       </c>
       <c r="H18">
-        <v>0.9928095486180017</v>
+        <v>1.078385887671232</v>
       </c>
       <c r="I18">
-        <v>1.002222580988996</v>
+        <v>1.831692875342466</v>
       </c>
       <c r="J18">
-        <v>0.9885302179806942</v>
+        <v>0.07954126379452052</v>
       </c>
       <c r="K18">
-        <v>1.010352991484143</v>
+        <v>1.831692875342466</v>
       </c>
       <c r="L18">
-        <v>1.002212614289804</v>
+        <v>1.078385887671232</v>
       </c>
       <c r="M18">
-        <v>0.9953714161352492</v>
+        <v>0.5789635757328764</v>
       </c>
       <c r="N18">
-        <v>0.9953714161352492</v>
+        <v>0.5789635757328764</v>
       </c>
       <c r="O18">
-        <v>0.9945174602961666</v>
+        <v>0.5371635290730591</v>
       </c>
       <c r="P18">
-        <v>1.00036527458488</v>
+        <v>0.9965400089360731</v>
       </c>
       <c r="Q18">
-        <v>1.00036527458488</v>
+        <v>0.9965400089360731</v>
       </c>
       <c r="R18">
-        <v>1.002862203809696</v>
+        <v>1.205328225537671</v>
       </c>
       <c r="S18">
-        <v>1.002862203809696</v>
+        <v>1.205328225537671</v>
       </c>
       <c r="T18">
-        <v>1.000005171661924</v>
+        <v>0.9293175885319634</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.026875273058584</v>
+        <v>1.537342276842106</v>
       </c>
       <c r="D19">
-        <v>0.9711474564797683</v>
+        <v>0.805558392368421</v>
       </c>
       <c r="E19">
-        <v>1.002829490535262</v>
+        <v>0.9594421115789475</v>
       </c>
       <c r="F19">
-        <v>1.026875273058584</v>
+        <v>1.047487644736842</v>
       </c>
       <c r="G19">
-        <v>0.998095724139536</v>
+        <v>0.7787013652052629</v>
       </c>
       <c r="H19">
-        <v>0.9830003949226743</v>
+        <v>1.114595295789474</v>
       </c>
       <c r="I19">
-        <v>1.007566793252644</v>
+        <v>0.9594421115789475</v>
       </c>
       <c r="J19">
-        <v>0.9711474564797683</v>
+        <v>0.7787013652052629</v>
       </c>
       <c r="K19">
-        <v>1.026875273058584</v>
+        <v>0.9594421115789475</v>
       </c>
       <c r="L19">
-        <v>1.002829490535262</v>
+        <v>1.114595295789474</v>
       </c>
       <c r="M19">
-        <v>0.9869884735075152</v>
+        <v>0.9466483304973683</v>
       </c>
       <c r="N19">
-        <v>0.9869884735075152</v>
+        <v>0.9466483304973683</v>
       </c>
       <c r="O19">
-        <v>0.9856591139792349</v>
+        <v>0.8996183511210525</v>
       </c>
       <c r="P19">
-        <v>1.000284073357872</v>
+        <v>0.9509129241912281</v>
       </c>
       <c r="Q19">
-        <v>1.000284073357872</v>
+        <v>0.9509129241912279</v>
       </c>
       <c r="R19">
-        <v>1.00693187328305</v>
+        <v>0.9530452210381578</v>
       </c>
       <c r="S19">
-        <v>1.00693187328305</v>
+        <v>0.9530452210381578</v>
       </c>
       <c r="T19">
-        <v>0.9982525220647448</v>
+        <v>1.040521181086842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.537340804210527</v>
+      </c>
+      <c r="D20">
+        <v>0.8055669083157895</v>
+      </c>
+      <c r="E20">
+        <v>0.9594303826315791</v>
+      </c>
+      <c r="F20">
+        <v>1.047483905263158</v>
+      </c>
+      <c r="G20">
+        <v>0.7787118512052631</v>
+      </c>
+      <c r="H20">
+        <v>1.114595711578947</v>
+      </c>
+      <c r="I20">
+        <v>0.9594303826315791</v>
+      </c>
+      <c r="J20">
+        <v>0.7787118512052631</v>
+      </c>
+      <c r="K20">
+        <v>0.9594303826315791</v>
+      </c>
+      <c r="L20">
+        <v>1.114595711578947</v>
+      </c>
+      <c r="M20">
+        <v>0.9466537813921052</v>
+      </c>
+      <c r="N20">
+        <v>0.9466537813921052</v>
+      </c>
+      <c r="O20">
+        <v>0.8996248237</v>
+      </c>
+      <c r="P20">
+        <v>0.9509126484719298</v>
+      </c>
+      <c r="Q20">
+        <v>0.9509126484719298</v>
+      </c>
+      <c r="R20">
+        <v>0.9530420820118422</v>
+      </c>
+      <c r="S20">
+        <v>0.9530420820118422</v>
+      </c>
+      <c r="T20">
+        <v>1.040521593867544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.3916032350935442</v>
+      </c>
+      <c r="D21">
+        <v>1.15140892260306</v>
+      </c>
+      <c r="E21">
+        <v>1.30647241442659</v>
+      </c>
+      <c r="F21">
+        <v>0.9547365632262481</v>
+      </c>
+      <c r="G21">
+        <v>1.015944378849625</v>
+      </c>
+      <c r="H21">
+        <v>0.8045724868653493</v>
+      </c>
+      <c r="I21">
+        <v>1.30647241442659</v>
+      </c>
+      <c r="J21">
+        <v>1.015944378849625</v>
+      </c>
+      <c r="K21">
+        <v>1.30647241442659</v>
+      </c>
+      <c r="L21">
+        <v>0.8045724868653493</v>
+      </c>
+      <c r="M21">
+        <v>0.910258432857487</v>
+      </c>
+      <c r="N21">
+        <v>0.910258432857487</v>
+      </c>
+      <c r="O21">
+        <v>0.9906419294393446</v>
+      </c>
+      <c r="P21">
+        <v>1.042329760047188</v>
+      </c>
+      <c r="Q21">
+        <v>1.042329760047188</v>
+      </c>
+      <c r="R21">
+        <v>1.108365423642038</v>
+      </c>
+      <c r="S21">
+        <v>1.108365423642038</v>
+      </c>
+      <c r="T21">
+        <v>0.937456333510736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.103210607310078</v>
+      </c>
+      <c r="D22">
+        <v>1.02632792105019</v>
+      </c>
+      <c r="E22">
+        <v>0.8282660897528031</v>
+      </c>
+      <c r="F22">
+        <v>0.980189335457885</v>
+      </c>
+      <c r="G22">
+        <v>1.220618036484302</v>
+      </c>
+      <c r="H22">
+        <v>1.045450183156155</v>
+      </c>
+      <c r="I22">
+        <v>0.8282660897528031</v>
+      </c>
+      <c r="J22">
+        <v>1.220618036484302</v>
+      </c>
+      <c r="K22">
+        <v>0.8282660897528031</v>
+      </c>
+      <c r="L22">
+        <v>1.045450183156155</v>
+      </c>
+      <c r="M22">
+        <v>1.133034109820228</v>
+      </c>
+      <c r="N22">
+        <v>1.133034109820228</v>
+      </c>
+      <c r="O22">
+        <v>1.097465380230215</v>
+      </c>
+      <c r="P22">
+        <v>1.031444769797753</v>
+      </c>
+      <c r="Q22">
+        <v>1.031444769797753</v>
+      </c>
+      <c r="R22">
+        <v>0.9806500997865156</v>
+      </c>
+      <c r="S22">
+        <v>0.9806500997865156</v>
+      </c>
+      <c r="T22">
+        <v>1.034010362201902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.391590026413473</v>
+      </c>
+      <c r="D23">
+        <v>1.151266502159159</v>
+      </c>
+      <c r="E23">
+        <v>1.306560201704678</v>
+      </c>
+      <c r="F23">
+        <v>0.954542229572208</v>
+      </c>
+      <c r="G23">
+        <v>1.01671927385909</v>
+      </c>
+      <c r="H23">
+        <v>0.8043992868324136</v>
+      </c>
+      <c r="I23">
+        <v>1.306560201704678</v>
+      </c>
+      <c r="J23">
+        <v>1.01671927385909</v>
+      </c>
+      <c r="K23">
+        <v>1.306560201704678</v>
+      </c>
+      <c r="L23">
+        <v>0.8043992868324136</v>
+      </c>
+      <c r="M23">
+        <v>0.9105592803457518</v>
+      </c>
+      <c r="N23">
+        <v>0.9105592803457518</v>
+      </c>
+      <c r="O23">
+        <v>0.9907950209502209</v>
+      </c>
+      <c r="P23">
+        <v>1.042559587465394</v>
+      </c>
+      <c r="Q23">
+        <v>1.042559587465394</v>
+      </c>
+      <c r="R23">
+        <v>1.108559741025215</v>
+      </c>
+      <c r="S23">
+        <v>1.108559741025215</v>
+      </c>
+      <c r="T23">
+        <v>0.9375129200901703</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.10316405772239</v>
+      </c>
+      <c r="D24">
+        <v>1.026463649762425</v>
+      </c>
+      <c r="E24">
+        <v>0.8282460588397216</v>
+      </c>
+      <c r="F24">
+        <v>0.9803016238526725</v>
+      </c>
+      <c r="G24">
+        <v>1.220092684267637</v>
+      </c>
+      <c r="H24">
+        <v>1.045602827429533</v>
+      </c>
+      <c r="I24">
+        <v>0.8282460588397216</v>
+      </c>
+      <c r="J24">
+        <v>1.220092684267637</v>
+      </c>
+      <c r="K24">
+        <v>0.8282460588397216</v>
+      </c>
+      <c r="L24">
+        <v>1.045602827429533</v>
+      </c>
+      <c r="M24">
+        <v>1.132847755848585</v>
+      </c>
+      <c r="N24">
+        <v>1.132847755848585</v>
+      </c>
+      <c r="O24">
+        <v>1.097386387153199</v>
+      </c>
+      <c r="P24">
+        <v>1.031313856845631</v>
+      </c>
+      <c r="Q24">
+        <v>1.031313856845631</v>
+      </c>
+      <c r="R24">
+        <v>0.9805469073441535</v>
+      </c>
+      <c r="S24">
+        <v>0.9805469073441535</v>
+      </c>
+      <c r="T24">
+        <v>1.03397848364573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.3915946401868134</v>
+      </c>
+      <c r="D25">
+        <v>1.151429390143762</v>
+      </c>
+      <c r="E25">
+        <v>1.30644912236038</v>
+      </c>
+      <c r="F25">
+        <v>0.9547262671127096</v>
+      </c>
+      <c r="G25">
+        <v>1.015990237598866</v>
+      </c>
+      <c r="H25">
+        <v>0.8045677907577001</v>
+      </c>
+      <c r="I25">
+        <v>1.30644912236038</v>
+      </c>
+      <c r="J25">
+        <v>1.015990237598866</v>
+      </c>
+      <c r="K25">
+        <v>1.30644912236038</v>
+      </c>
+      <c r="L25">
+        <v>0.8045677907577001</v>
+      </c>
+      <c r="M25">
+        <v>0.9102790141782828</v>
+      </c>
+      <c r="N25">
+        <v>0.9102790141782828</v>
+      </c>
+      <c r="O25">
+        <v>0.9906624728334426</v>
+      </c>
+      <c r="P25">
+        <v>1.042335716905649</v>
+      </c>
+      <c r="Q25">
+        <v>1.042335716905649</v>
+      </c>
+      <c r="R25">
+        <v>1.108364068269331</v>
+      </c>
+      <c r="S25">
+        <v>1.108364068269331</v>
+      </c>
+      <c r="T25">
+        <v>0.9374595746933719</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.103196887568546</v>
+      </c>
+      <c r="D26">
+        <v>1.026333099529684</v>
+      </c>
+      <c r="E26">
+        <v>0.8282693865191765</v>
+      </c>
+      <c r="F26">
+        <v>0.9801875238743869</v>
+      </c>
+      <c r="G26">
+        <v>1.220624276039493</v>
+      </c>
+      <c r="H26">
+        <v>1.04544632946447</v>
+      </c>
+      <c r="I26">
+        <v>0.8282693865191765</v>
+      </c>
+      <c r="J26">
+        <v>1.220624276039493</v>
+      </c>
+      <c r="K26">
+        <v>0.8282693865191765</v>
+      </c>
+      <c r="L26">
+        <v>1.04544632946447</v>
+      </c>
+      <c r="M26">
+        <v>1.133035302751981</v>
+      </c>
+      <c r="N26">
+        <v>1.133035302751981</v>
+      </c>
+      <c r="O26">
+        <v>1.097467901677882</v>
+      </c>
+      <c r="P26">
+        <v>1.031446664007713</v>
+      </c>
+      <c r="Q26">
+        <v>1.031446664007713</v>
+      </c>
+      <c r="R26">
+        <v>0.9806523446355789</v>
+      </c>
+      <c r="S26">
+        <v>0.9806523446355789</v>
+      </c>
+      <c r="T26">
+        <v>1.034009583832626</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.138377561473773</v>
+      </c>
+      <c r="D27">
+        <v>0.9738717035408081</v>
+      </c>
+      <c r="E27">
+        <v>1.033029161572137</v>
+      </c>
+      <c r="F27">
+        <v>1.004864373787684</v>
+      </c>
+      <c r="G27">
+        <v>0.6904649797693797</v>
+      </c>
+      <c r="H27">
+        <v>1.00895962121752</v>
+      </c>
+      <c r="I27">
+        <v>1.033029161572137</v>
+      </c>
+      <c r="J27">
+        <v>0.6904649797693797</v>
+      </c>
+      <c r="K27">
+        <v>1.033029161572137</v>
+      </c>
+      <c r="L27">
+        <v>1.00895962121752</v>
+      </c>
+      <c r="M27">
+        <v>0.8497123004934499</v>
+      </c>
+      <c r="N27">
+        <v>0.8497123004934499</v>
+      </c>
+      <c r="O27">
+        <v>0.8910987681759027</v>
+      </c>
+      <c r="P27">
+        <v>0.9108179208530124</v>
+      </c>
+      <c r="Q27">
+        <v>0.9108179208530124</v>
+      </c>
+      <c r="R27">
+        <v>0.9413707310327937</v>
+      </c>
+      <c r="S27">
+        <v>0.9413707310327937</v>
+      </c>
+      <c r="T27">
+        <v>0.9749279002268838</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.8020828575950799</v>
+      </c>
+      <c r="D28">
+        <v>0.9602748206707215</v>
+      </c>
+      <c r="E28">
+        <v>1.111271694413187</v>
+      </c>
+      <c r="F28">
+        <v>1.027227886437342</v>
+      </c>
+      <c r="G28">
+        <v>1.018085589983899</v>
+      </c>
+      <c r="H28">
+        <v>0.9914527126973047</v>
+      </c>
+      <c r="I28">
+        <v>1.111271694413187</v>
+      </c>
+      <c r="J28">
+        <v>1.018085589983899</v>
+      </c>
+      <c r="K28">
+        <v>1.111271694413187</v>
+      </c>
+      <c r="L28">
+        <v>0.9914527126973047</v>
+      </c>
+      <c r="M28">
+        <v>1.004769151340602</v>
+      </c>
+      <c r="N28">
+        <v>1.004769151340602</v>
+      </c>
+      <c r="O28">
+        <v>0.9899377077839752</v>
+      </c>
+      <c r="P28">
+        <v>1.040269999031464</v>
+      </c>
+      <c r="Q28">
+        <v>1.040269999031464</v>
+      </c>
+      <c r="R28">
+        <v>1.058020422876895</v>
+      </c>
+      <c r="S28">
+        <v>1.058020422876895</v>
+      </c>
+      <c r="T28">
+        <v>0.9850659269662558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.500377083675376</v>
+      </c>
+      <c r="D29">
+        <v>1.175019860829085</v>
+      </c>
+      <c r="E29">
+        <v>1.045349206587197</v>
+      </c>
+      <c r="F29">
+        <v>0.9289998927354833</v>
+      </c>
+      <c r="G29">
+        <v>1.349484257491407</v>
+      </c>
+      <c r="H29">
+        <v>0.8919710391386702</v>
+      </c>
+      <c r="I29">
+        <v>1.045349206587197</v>
+      </c>
+      <c r="J29">
+        <v>1.349484257491407</v>
+      </c>
+      <c r="K29">
+        <v>1.045349206587197</v>
+      </c>
+      <c r="L29">
+        <v>0.8919710391386702</v>
+      </c>
+      <c r="M29">
+        <v>1.120727648315038</v>
+      </c>
+      <c r="N29">
+        <v>1.120727648315038</v>
+      </c>
+      <c r="O29">
+        <v>1.138825052486387</v>
+      </c>
+      <c r="P29">
+        <v>1.095601501072425</v>
+      </c>
+      <c r="Q29">
+        <v>1.095601501072425</v>
+      </c>
+      <c r="R29">
+        <v>1.083038427451118</v>
+      </c>
+      <c r="S29">
+        <v>1.083038427451118</v>
+      </c>
+      <c r="T29">
+        <v>0.9818668900762031</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.031056937486022</v>
+        <v>1.444892232395564</v>
       </c>
       <c r="D4">
-        <v>0.9303017757707843</v>
+        <v>0.846813829097865</v>
       </c>
       <c r="E4">
-        <v>1.080091102274713</v>
+        <v>0.9338207842656935</v>
       </c>
       <c r="F4">
-        <v>1.031130891382619</v>
+        <v>1.046121710627318</v>
       </c>
       <c r="G4">
-        <v>0.8722435302626421</v>
+        <v>0.8095897379466974</v>
       </c>
       <c r="H4">
-        <v>1.017365492984175</v>
+        <v>1.098165994310331</v>
       </c>
       <c r="I4">
-        <v>1.080091102274713</v>
+        <v>0.9338207842656935</v>
       </c>
       <c r="J4">
-        <v>0.8722435302626421</v>
+        <v>0.8095897379466974</v>
       </c>
       <c r="K4">
-        <v>1.080091102274713</v>
+        <v>0.9338207842656935</v>
       </c>
       <c r="L4">
-        <v>1.017365492984175</v>
+        <v>1.098165994310331</v>
       </c>
       <c r="M4">
-        <v>0.9448045116234086</v>
+        <v>0.9538778661285141</v>
       </c>
       <c r="N4">
-        <v>0.9448045116234086</v>
+        <v>0.9538778661285141</v>
       </c>
       <c r="O4">
-        <v>0.9399702663392006</v>
+        <v>0.9181898537849644</v>
       </c>
       <c r="P4">
-        <v>0.9899000418405102</v>
+        <v>0.9471921721742406</v>
       </c>
       <c r="Q4">
-        <v>0.9899000418405102</v>
+        <v>0.9471921721742406</v>
       </c>
       <c r="R4">
-        <v>1.012447806949061</v>
+        <v>0.9438493251971039</v>
       </c>
       <c r="S4">
-        <v>1.012447806949061</v>
+        <v>0.9438493251971039</v>
       </c>
       <c r="T4">
-        <v>0.9936982883601595</v>
+        <v>1.029900714773911</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.522128329654181</v>
+        <v>1.271685222501387</v>
       </c>
       <c r="D5">
-        <v>0.8160271044474058</v>
+        <v>0.8771959157191707</v>
       </c>
       <c r="E5">
-        <v>0.9398207549351593</v>
+        <v>0.9937466504097803</v>
       </c>
       <c r="F5">
-        <v>1.053893213559081</v>
+        <v>1.034944930335487</v>
       </c>
       <c r="G5">
-        <v>0.7703683545542516</v>
+        <v>0.8590645927027248</v>
       </c>
       <c r="H5">
-        <v>1.110175025389045</v>
+        <v>1.074327842576949</v>
       </c>
       <c r="I5">
-        <v>0.9398207549351593</v>
+        <v>0.9937466504097803</v>
       </c>
       <c r="J5">
-        <v>0.7703683545542516</v>
+        <v>0.8590645927027248</v>
       </c>
       <c r="K5">
-        <v>0.9398207549351593</v>
+        <v>0.9937466504097803</v>
       </c>
       <c r="L5">
-        <v>1.110175025389045</v>
+        <v>1.074327842576949</v>
       </c>
       <c r="M5">
-        <v>0.9402716899716483</v>
+        <v>0.9666962176398368</v>
       </c>
       <c r="N5">
-        <v>0.9402716899716483</v>
+        <v>0.9666962176398368</v>
       </c>
       <c r="O5">
-        <v>0.8988568281302342</v>
+        <v>0.9368627836662814</v>
       </c>
       <c r="P5">
-        <v>0.9401213782928187</v>
+        <v>0.9757130285631513</v>
       </c>
       <c r="Q5">
-        <v>0.9401213782928187</v>
+        <v>0.9757130285631513</v>
       </c>
       <c r="R5">
-        <v>0.9400462224534039</v>
+        <v>0.9802214340248085</v>
       </c>
       <c r="S5">
-        <v>0.9400462224534039</v>
+        <v>0.9802214340248085</v>
       </c>
       <c r="T5">
-        <v>1.035402130423188</v>
+        <v>1.01849419237425</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>3.301068799591222</v>
+        <v>1.031056937486022</v>
       </c>
       <c r="D6">
-        <v>0.4392847710860305</v>
+        <v>0.9303017757707843</v>
       </c>
       <c r="E6">
-        <v>0.574666152838738</v>
+        <v>1.080091102274713</v>
       </c>
       <c r="F6">
-        <v>1.08612150136265</v>
+        <v>1.031130891382619</v>
       </c>
       <c r="G6">
-        <v>0.4065898688589696</v>
+        <v>0.8722435302626421</v>
       </c>
       <c r="H6">
-        <v>1.349753758263831</v>
+        <v>1.017365492984175</v>
       </c>
       <c r="I6">
-        <v>0.574666152838738</v>
+        <v>1.080091102274713</v>
       </c>
       <c r="J6">
-        <v>0.4065898688589696</v>
+        <v>0.8722435302626421</v>
       </c>
       <c r="K6">
-        <v>0.574666152838738</v>
+        <v>1.080091102274713</v>
       </c>
       <c r="L6">
-        <v>1.349753758263831</v>
+        <v>1.017365492984175</v>
       </c>
       <c r="M6">
-        <v>0.8781718135614002</v>
+        <v>0.9448045116234086</v>
       </c>
       <c r="N6">
-        <v>0.8781718135614002</v>
+        <v>0.9448045116234086</v>
       </c>
       <c r="O6">
-        <v>0.7318761327362769</v>
+        <v>0.9399702663392006</v>
       </c>
       <c r="P6">
-        <v>0.7770032599871795</v>
+        <v>0.9899000418405102</v>
       </c>
       <c r="Q6">
-        <v>0.7770032599871795</v>
+        <v>0.9899000418405102</v>
       </c>
       <c r="R6">
-        <v>0.7264189832000691</v>
+        <v>1.012447806949061</v>
       </c>
       <c r="S6">
-        <v>0.7264189832000691</v>
+        <v>1.012447806949061</v>
       </c>
       <c r="T6">
-        <v>1.19291414200024</v>
+        <v>0.9936982883601595</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9973847474582913</v>
+        <v>1.522128329654181</v>
       </c>
       <c r="D7">
-        <v>0.9747135390141256</v>
+        <v>0.8160271044474058</v>
       </c>
       <c r="E7">
-        <v>1.035496150284531</v>
+        <v>0.9398207549351593</v>
       </c>
       <c r="F7">
-        <v>1.012341879295212</v>
+        <v>1.053893213559081</v>
       </c>
       <c r="G7">
-        <v>0.9571222657082623</v>
+        <v>0.7703683545542516</v>
       </c>
       <c r="H7">
-        <v>1.004520919632398</v>
+        <v>1.110175025389045</v>
       </c>
       <c r="I7">
-        <v>1.035496150284531</v>
+        <v>0.9398207549351593</v>
       </c>
       <c r="J7">
-        <v>0.9571222657082623</v>
+        <v>0.7703683545542516</v>
       </c>
       <c r="K7">
-        <v>1.035496150284531</v>
+        <v>0.9398207549351593</v>
       </c>
       <c r="L7">
-        <v>1.004520919632398</v>
+        <v>1.110175025389045</v>
       </c>
       <c r="M7">
-        <v>0.9808215926703302</v>
+        <v>0.9402716899716483</v>
       </c>
       <c r="N7">
-        <v>0.9808215926703302</v>
+        <v>0.9402716899716483</v>
       </c>
       <c r="O7">
-        <v>0.9787855747849287</v>
+        <v>0.8988568281302342</v>
       </c>
       <c r="P7">
-        <v>0.9990464452083971</v>
+        <v>0.9401213782928187</v>
       </c>
       <c r="Q7">
-        <v>0.9990464452083971</v>
+        <v>0.9401213782928187</v>
       </c>
       <c r="R7">
-        <v>1.008158871477431</v>
+        <v>0.9400462224534039</v>
       </c>
       <c r="S7">
-        <v>1.008158871477431</v>
+        <v>0.9400462224534039</v>
       </c>
       <c r="T7">
-        <v>0.9969299168988034</v>
+        <v>1.035402130423188</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.003280527375398</v>
+        <v>3.301068799591222</v>
       </c>
       <c r="D8">
-        <v>0.9984579124670675</v>
+        <v>0.4392847710860305</v>
       </c>
       <c r="E8">
-        <v>1.000459066270051</v>
+        <v>0.574666152838738</v>
       </c>
       <c r="F8">
-        <v>1.000533368823424</v>
+        <v>1.08612150136265</v>
       </c>
       <c r="G8">
-        <v>0.9976229916163222</v>
+        <v>0.4065898688589696</v>
       </c>
       <c r="H8">
-        <v>1.000187066427251</v>
+        <v>1.349753758263831</v>
       </c>
       <c r="I8">
-        <v>1.000459066270051</v>
+        <v>0.574666152838738</v>
       </c>
       <c r="J8">
-        <v>0.9976229916163222</v>
+        <v>0.4065898688589696</v>
       </c>
       <c r="K8">
-        <v>1.000459066270051</v>
+        <v>0.574666152838738</v>
       </c>
       <c r="L8">
-        <v>1.000187066427251</v>
+        <v>1.349753758263831</v>
       </c>
       <c r="M8">
-        <v>0.9989050290217865</v>
+        <v>0.8781718135614002</v>
       </c>
       <c r="N8">
-        <v>0.9989050290217865</v>
+        <v>0.8781718135614002</v>
       </c>
       <c r="O8">
-        <v>0.9987559901702134</v>
+        <v>0.7318761327362769</v>
       </c>
       <c r="P8">
-        <v>0.9994230414378745</v>
+        <v>0.7770032599871795</v>
       </c>
       <c r="Q8">
-        <v>0.9994230414378745</v>
+        <v>0.7770032599871795</v>
       </c>
       <c r="R8">
-        <v>0.9996820476459185</v>
+        <v>0.7264189832000691</v>
       </c>
       <c r="S8">
-        <v>0.9996820476459185</v>
+        <v>0.7264189832000691</v>
       </c>
       <c r="T8">
-        <v>1.000090155496585</v>
+        <v>1.19291414200024</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9947849456382666</v>
+        <v>0.9973847474582913</v>
       </c>
       <c r="D9">
-        <v>0.9544368470418514</v>
+        <v>0.9747135390141256</v>
       </c>
       <c r="E9">
-        <v>1.065904457492124</v>
+        <v>1.035496150284531</v>
       </c>
       <c r="F9">
-        <v>1.021633333614557</v>
+        <v>1.012341879295212</v>
       </c>
       <c r="G9">
-        <v>0.9258221223941168</v>
+        <v>0.9571222657082623</v>
       </c>
       <c r="H9">
-        <v>1.007466558154865</v>
+        <v>1.004520919632398</v>
       </c>
       <c r="I9">
-        <v>1.065904457492124</v>
+        <v>1.035496150284531</v>
       </c>
       <c r="J9">
-        <v>0.9258221223941168</v>
+        <v>0.9571222657082623</v>
       </c>
       <c r="K9">
-        <v>1.065904457492124</v>
+        <v>1.035496150284531</v>
       </c>
       <c r="L9">
-        <v>1.007466558154865</v>
+        <v>1.004520919632398</v>
       </c>
       <c r="M9">
-        <v>0.9666443402744908</v>
+        <v>0.9808215926703302</v>
       </c>
       <c r="N9">
-        <v>0.9666443402744908</v>
+        <v>0.9808215926703302</v>
       </c>
       <c r="O9">
-        <v>0.962575175863611</v>
+        <v>0.9787855747849287</v>
       </c>
       <c r="P9">
-        <v>0.9997310460137018</v>
+        <v>0.9990464452083971</v>
       </c>
       <c r="Q9">
-        <v>0.9997310460137018</v>
+        <v>0.9990464452083971</v>
       </c>
       <c r="R9">
-        <v>1.016274398883307</v>
+        <v>1.008158871477431</v>
       </c>
       <c r="S9">
-        <v>1.016274398883307</v>
+        <v>1.008158871477431</v>
       </c>
       <c r="T9">
-        <v>0.9950080440559633</v>
+        <v>0.9969299168988034</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>3.355686115950863</v>
+        <v>1.003280527375398</v>
       </c>
       <c r="D10">
-        <v>0.4298877759610722</v>
+        <v>0.9984579124670675</v>
       </c>
       <c r="E10">
-        <v>0.5598411876443362</v>
+        <v>1.000459066270051</v>
       </c>
       <c r="F10">
-        <v>1.084982273314379</v>
+        <v>1.000533368823424</v>
       </c>
       <c r="G10">
-        <v>0.4191828677399756</v>
+        <v>0.9976229916163222</v>
       </c>
       <c r="H10">
-        <v>1.355015287638207</v>
+        <v>1.000187066427251</v>
       </c>
       <c r="I10">
-        <v>0.5598411876443362</v>
+        <v>1.000459066270051</v>
       </c>
       <c r="J10">
-        <v>0.4191828677399756</v>
+        <v>0.9976229916163222</v>
       </c>
       <c r="K10">
-        <v>0.5598411876443362</v>
+        <v>1.000459066270051</v>
       </c>
       <c r="L10">
-        <v>1.355015287638207</v>
+        <v>1.000187066427251</v>
       </c>
       <c r="M10">
-        <v>0.8870990776890914</v>
+        <v>0.9989050290217865</v>
       </c>
       <c r="N10">
-        <v>0.8870990776890914</v>
+        <v>0.9989050290217865</v>
       </c>
       <c r="O10">
-        <v>0.7346953104464182</v>
+        <v>0.9987559901702134</v>
       </c>
       <c r="P10">
-        <v>0.7780131143408396</v>
+        <v>0.9994230414378745</v>
       </c>
       <c r="Q10">
-        <v>0.7780131143408396</v>
+        <v>0.9994230414378745</v>
       </c>
       <c r="R10">
-        <v>0.7234701326667138</v>
+        <v>0.9996820476459185</v>
       </c>
       <c r="S10">
-        <v>0.7234701326667138</v>
+        <v>0.9996820476459185</v>
       </c>
       <c r="T10">
-        <v>1.200765918041472</v>
+        <v>1.000090155496585</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9950272663021317</v>
+        <v>0.9947849456382666</v>
       </c>
       <c r="D11">
-        <v>0.9330147077610987</v>
+        <v>0.9544368470418514</v>
       </c>
       <c r="E11">
-        <v>1.105596462689006</v>
+        <v>1.065904457492124</v>
       </c>
       <c r="F11">
-        <v>1.032029300883617</v>
+        <v>1.021633333614557</v>
       </c>
       <c r="G11">
-        <v>0.868554361315348</v>
+        <v>0.9258221223941168</v>
       </c>
       <c r="H11">
-        <v>1.005229585411211</v>
+        <v>1.007466558154865</v>
       </c>
       <c r="I11">
-        <v>1.105596462689006</v>
+        <v>1.065904457492124</v>
       </c>
       <c r="J11">
-        <v>0.868554361315348</v>
+        <v>0.9258221223941168</v>
       </c>
       <c r="K11">
-        <v>1.105596462689006</v>
+        <v>1.065904457492124</v>
       </c>
       <c r="L11">
-        <v>1.005229585411211</v>
+        <v>1.007466558154865</v>
       </c>
       <c r="M11">
-        <v>0.9368919733632795</v>
+        <v>0.9666443402744908</v>
       </c>
       <c r="N11">
-        <v>0.9368919733632795</v>
+        <v>0.9666443402744908</v>
       </c>
       <c r="O11">
-        <v>0.9355995514958858</v>
+        <v>0.962575175863611</v>
       </c>
       <c r="P11">
-        <v>0.9931268031385218</v>
+        <v>0.9997310460137018</v>
       </c>
       <c r="Q11">
-        <v>0.9931268031385218</v>
+        <v>0.9997310460137018</v>
       </c>
       <c r="R11">
-        <v>1.021244218026143</v>
+        <v>1.016274398883307</v>
       </c>
       <c r="S11">
-        <v>1.021244218026143</v>
+        <v>1.016274398883307</v>
       </c>
       <c r="T11">
-        <v>0.9899086140604022</v>
+        <v>0.9950080440559633</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.670365295568428</v>
+        <v>3.355686115950863</v>
       </c>
       <c r="D12">
-        <v>0.8163696991189463</v>
+        <v>0.4298877759610722</v>
       </c>
       <c r="E12">
-        <v>0.85557625788421</v>
+        <v>0.5598411876443362</v>
       </c>
       <c r="F12">
-        <v>1.039194025957897</v>
+        <v>1.084982273314379</v>
       </c>
       <c r="G12">
-        <v>0.8484799254045253</v>
+        <v>0.4191828677399756</v>
       </c>
       <c r="H12">
-        <v>1.126718751094735</v>
+        <v>1.355015287638207</v>
       </c>
       <c r="I12">
-        <v>0.85557625788421</v>
+        <v>0.5598411876443362</v>
       </c>
       <c r="J12">
-        <v>0.8484799254045253</v>
+        <v>0.4191828677399756</v>
       </c>
       <c r="K12">
-        <v>0.85557625788421</v>
+        <v>0.5598411876443362</v>
       </c>
       <c r="L12">
-        <v>1.126718751094735</v>
+        <v>1.355015287638207</v>
       </c>
       <c r="M12">
-        <v>0.9875993382496302</v>
+        <v>0.8870990776890914</v>
       </c>
       <c r="N12">
-        <v>0.9875993382496302</v>
+        <v>0.8870990776890914</v>
       </c>
       <c r="O12">
-        <v>0.9305227918727356</v>
+        <v>0.7346953104464182</v>
       </c>
       <c r="P12">
-        <v>0.9435916447944902</v>
+        <v>0.7780131143408396</v>
       </c>
       <c r="Q12">
-        <v>0.94359164479449</v>
+        <v>0.7780131143408396</v>
       </c>
       <c r="R12">
-        <v>0.92158779806692</v>
+        <v>0.7234701326667138</v>
       </c>
       <c r="S12">
-        <v>0.92158779806692</v>
+        <v>0.7234701326667138</v>
       </c>
       <c r="T12">
-        <v>1.059450659171457</v>
+        <v>1.200765918041472</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7923763432313975</v>
+        <v>0.9950272663021317</v>
       </c>
       <c r="D13">
-        <v>1.123453879740312</v>
+        <v>0.9330147077610987</v>
       </c>
       <c r="E13">
-        <v>0.9844258756847879</v>
+        <v>1.105596462689006</v>
       </c>
       <c r="F13">
-        <v>0.9437640927315561</v>
+        <v>1.032029300883617</v>
       </c>
       <c r="G13">
-        <v>1.262395094995397</v>
+        <v>0.868554361315348</v>
       </c>
       <c r="H13">
-        <v>0.9250734731633052</v>
+        <v>1.005229585411211</v>
       </c>
       <c r="I13">
-        <v>0.9844258756847879</v>
+        <v>1.105596462689006</v>
       </c>
       <c r="J13">
-        <v>1.262395094995397</v>
+        <v>0.868554361315348</v>
       </c>
       <c r="K13">
-        <v>0.9844258756847879</v>
+        <v>1.105596462689006</v>
       </c>
       <c r="L13">
-        <v>0.9250734731633052</v>
+        <v>1.005229585411211</v>
       </c>
       <c r="M13">
-        <v>1.093734284079351</v>
+        <v>0.9368919733632795</v>
       </c>
       <c r="N13">
-        <v>1.093734284079351</v>
+        <v>0.9368919733632795</v>
       </c>
       <c r="O13">
-        <v>1.103640815966338</v>
+        <v>0.9355995514958858</v>
       </c>
       <c r="P13">
-        <v>1.05729814794783</v>
+        <v>0.9931268031385218</v>
       </c>
       <c r="Q13">
-        <v>1.05729814794783</v>
+        <v>0.9931268031385218</v>
       </c>
       <c r="R13">
-        <v>1.03908007988207</v>
+        <v>1.021244218026143</v>
       </c>
       <c r="S13">
-        <v>1.03908007988207</v>
+        <v>1.021244218026143</v>
       </c>
       <c r="T13">
-        <v>1.005248126591126</v>
+        <v>0.9899086140604022</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>5.166004400000004</v>
+        <v>1.670365295568428</v>
       </c>
       <c r="D14">
-        <v>0.02988525700000006</v>
+        <v>0.8163696991189463</v>
       </c>
       <c r="E14">
-        <v>0.2138068799999999</v>
+        <v>0.85557625788421</v>
       </c>
       <c r="F14">
-        <v>1.1262586</v>
+        <v>1.039194025957897</v>
       </c>
       <c r="G14">
-        <v>0.001799323199999997</v>
+        <v>0.8484799254045253</v>
       </c>
       <c r="H14">
-        <v>1.602552399999997</v>
+        <v>1.126718751094735</v>
       </c>
       <c r="I14">
-        <v>0.2138068799999999</v>
+        <v>0.85557625788421</v>
       </c>
       <c r="J14">
-        <v>0.001799323199999997</v>
+        <v>0.8484799254045253</v>
       </c>
       <c r="K14">
-        <v>0.2138068799999999</v>
+        <v>0.85557625788421</v>
       </c>
       <c r="L14">
-        <v>1.602552399999997</v>
+        <v>1.126718751094735</v>
       </c>
       <c r="M14">
-        <v>0.8021758615999985</v>
+        <v>0.9875993382496302</v>
       </c>
       <c r="N14">
-        <v>0.8021758615999985</v>
+        <v>0.9875993382496302</v>
       </c>
       <c r="O14">
-        <v>0.5447456600666657</v>
+        <v>0.9305227918727356</v>
       </c>
       <c r="P14">
-        <v>0.6060528677333323</v>
+        <v>0.9435916447944902</v>
       </c>
       <c r="Q14">
-        <v>0.6060528677333323</v>
+        <v>0.94359164479449</v>
       </c>
       <c r="R14">
-        <v>0.5079913707999992</v>
+        <v>0.92158779806692</v>
       </c>
       <c r="S14">
-        <v>0.5079913707999992</v>
+        <v>0.92158779806692</v>
       </c>
       <c r="T14">
-        <v>1.356717810033333</v>
+        <v>1.059450659171457</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.90819851</v>
+        <v>0.7923763432313975</v>
       </c>
       <c r="D15">
-        <v>0.43230995</v>
+        <v>1.123453879740312</v>
       </c>
       <c r="E15">
-        <v>1.9322331</v>
+        <v>0.9844258756847879</v>
       </c>
       <c r="F15">
-        <v>1.2371812</v>
+        <v>0.9437640927315561</v>
       </c>
       <c r="G15">
-        <v>0.08280025100000002</v>
+        <v>1.262395094995397</v>
       </c>
       <c r="H15">
-        <v>1.124226</v>
+        <v>0.9250734731633052</v>
       </c>
       <c r="I15">
-        <v>1.9322331</v>
+        <v>0.9844258756847879</v>
       </c>
       <c r="J15">
-        <v>0.08280025100000002</v>
+        <v>1.262395094995397</v>
       </c>
       <c r="K15">
-        <v>1.9322331</v>
+        <v>0.9844258756847879</v>
       </c>
       <c r="L15">
-        <v>1.124226</v>
+        <v>0.9250734731633052</v>
       </c>
       <c r="M15">
-        <v>0.6035131255</v>
+        <v>1.093734284079351</v>
       </c>
       <c r="N15">
-        <v>0.6035131255</v>
+        <v>1.093734284079351</v>
       </c>
       <c r="O15">
-        <v>0.5464454003333333</v>
+        <v>1.103640815966338</v>
       </c>
       <c r="P15">
-        <v>1.046419783666667</v>
+        <v>1.05729814794783</v>
       </c>
       <c r="Q15">
-        <v>1.046419783666667</v>
+        <v>1.05729814794783</v>
       </c>
       <c r="R15">
-        <v>1.26787311275</v>
+        <v>1.03908007988207</v>
       </c>
       <c r="S15">
-        <v>1.26787311275</v>
+        <v>1.03908007988207</v>
       </c>
       <c r="T15">
-        <v>0.9528248351666666</v>
+        <v>1.005248126591126</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.90814186</v>
+        <v>5.166004400000004</v>
       </c>
       <c r="D16">
-        <v>0.43232854</v>
+        <v>0.02988525700000006</v>
       </c>
       <c r="E16">
-        <v>1.9322331</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="F16">
-        <v>1.2371767</v>
+        <v>1.1262586</v>
       </c>
       <c r="G16">
-        <v>0.08280964</v>
+        <v>0.001799323199999997</v>
       </c>
       <c r="H16">
-        <v>1.1242207</v>
+        <v>1.602552399999997</v>
       </c>
       <c r="I16">
-        <v>1.9322331</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="J16">
-        <v>0.08280964</v>
+        <v>0.001799323199999997</v>
       </c>
       <c r="K16">
-        <v>1.9322331</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="L16">
-        <v>1.1242207</v>
+        <v>1.602552399999997</v>
       </c>
       <c r="M16">
-        <v>0.60351517</v>
+        <v>0.8021758615999985</v>
       </c>
       <c r="N16">
-        <v>0.60351517</v>
+        <v>0.8021758615999985</v>
       </c>
       <c r="O16">
-        <v>0.54645296</v>
+        <v>0.5447456600666657</v>
       </c>
       <c r="P16">
-        <v>1.046421146666667</v>
+        <v>0.6060528677333323</v>
       </c>
       <c r="Q16">
-        <v>1.046421146666667</v>
+        <v>0.6060528677333323</v>
       </c>
       <c r="R16">
-        <v>1.267874135</v>
+        <v>0.5079913707999992</v>
       </c>
       <c r="S16">
-        <v>1.267874135</v>
+        <v>0.5079913707999992</v>
       </c>
       <c r="T16">
-        <v>0.9528184233333333</v>
+        <v>1.356717810033333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.1055703</v>
+        <v>0.90819851</v>
       </c>
       <c r="D17">
-        <v>1.2800924</v>
+        <v>0.43230995</v>
       </c>
       <c r="E17">
-        <v>0.31268751</v>
+        <v>1.9322331</v>
       </c>
       <c r="F17">
-        <v>0.83709811</v>
+        <v>1.2371812</v>
       </c>
       <c r="G17">
-        <v>2.0281538</v>
+        <v>0.08280025100000002</v>
       </c>
       <c r="H17">
-        <v>1.0903891</v>
+        <v>1.124226</v>
       </c>
       <c r="I17">
-        <v>0.31268751</v>
+        <v>1.9322331</v>
       </c>
       <c r="J17">
-        <v>2.0281538</v>
+        <v>0.08280025100000002</v>
       </c>
       <c r="K17">
-        <v>0.31268751</v>
+        <v>1.9322331</v>
       </c>
       <c r="L17">
-        <v>1.0903891</v>
+        <v>1.124226</v>
       </c>
       <c r="M17">
-        <v>1.55927145</v>
+        <v>0.6035131255</v>
       </c>
       <c r="N17">
-        <v>1.55927145</v>
+        <v>0.6035131255</v>
       </c>
       <c r="O17">
-        <v>1.466211766666667</v>
+        <v>0.5464454003333333</v>
       </c>
       <c r="P17">
-        <v>1.14374347</v>
+        <v>1.046419783666667</v>
       </c>
       <c r="Q17">
-        <v>1.14374347</v>
+        <v>1.046419783666667</v>
       </c>
       <c r="R17">
-        <v>0.93597948</v>
+        <v>1.26787311275</v>
       </c>
       <c r="S17">
-        <v>0.93597948</v>
+        <v>1.26787311275</v>
       </c>
       <c r="T17">
-        <v>1.108998536666667</v>
+        <v>0.9528248351666666</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.865554257671233</v>
+        <v>0.90814186</v>
       </c>
       <c r="D18">
-        <v>0.4535634357534244</v>
+        <v>0.43232854</v>
       </c>
       <c r="E18">
-        <v>1.831692875342466</v>
+        <v>1.9322331</v>
       </c>
       <c r="F18">
-        <v>1.267167810958904</v>
+        <v>1.2371767</v>
       </c>
       <c r="G18">
-        <v>0.07954126379452052</v>
+        <v>0.08280964</v>
       </c>
       <c r="H18">
-        <v>1.078385887671232</v>
+        <v>1.1242207</v>
       </c>
       <c r="I18">
-        <v>1.831692875342466</v>
+        <v>1.9322331</v>
       </c>
       <c r="J18">
-        <v>0.07954126379452052</v>
+        <v>0.08280964</v>
       </c>
       <c r="K18">
-        <v>1.831692875342466</v>
+        <v>1.9322331</v>
       </c>
       <c r="L18">
-        <v>1.078385887671232</v>
+        <v>1.1242207</v>
       </c>
       <c r="M18">
-        <v>0.5789635757328764</v>
+        <v>0.60351517</v>
       </c>
       <c r="N18">
-        <v>0.5789635757328764</v>
+        <v>0.60351517</v>
       </c>
       <c r="O18">
-        <v>0.5371635290730591</v>
+        <v>0.54645296</v>
       </c>
       <c r="P18">
-        <v>0.9965400089360731</v>
+        <v>1.046421146666667</v>
       </c>
       <c r="Q18">
-        <v>0.9965400089360731</v>
+        <v>1.046421146666667</v>
       </c>
       <c r="R18">
-        <v>1.205328225537671</v>
+        <v>1.267874135</v>
       </c>
       <c r="S18">
-        <v>1.205328225537671</v>
+        <v>1.267874135</v>
       </c>
       <c r="T18">
-        <v>0.9293175885319634</v>
+        <v>0.9528184233333333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.537342276842106</v>
+        <v>1.1055703</v>
       </c>
       <c r="D19">
-        <v>0.805558392368421</v>
+        <v>1.2800924</v>
       </c>
       <c r="E19">
-        <v>0.9594421115789475</v>
+        <v>0.31268751</v>
       </c>
       <c r="F19">
-        <v>1.047487644736842</v>
+        <v>0.83709811</v>
       </c>
       <c r="G19">
-        <v>0.7787013652052629</v>
+        <v>2.0281538</v>
       </c>
       <c r="H19">
-        <v>1.114595295789474</v>
+        <v>1.0903891</v>
       </c>
       <c r="I19">
-        <v>0.9594421115789475</v>
+        <v>0.31268751</v>
       </c>
       <c r="J19">
-        <v>0.7787013652052629</v>
+        <v>2.0281538</v>
       </c>
       <c r="K19">
-        <v>0.9594421115789475</v>
+        <v>0.31268751</v>
       </c>
       <c r="L19">
-        <v>1.114595295789474</v>
+        <v>1.0903891</v>
       </c>
       <c r="M19">
-        <v>0.9466483304973683</v>
+        <v>1.55927145</v>
       </c>
       <c r="N19">
-        <v>0.9466483304973683</v>
+        <v>1.55927145</v>
       </c>
       <c r="O19">
-        <v>0.8996183511210525</v>
+        <v>1.466211766666667</v>
       </c>
       <c r="P19">
-        <v>0.9509129241912281</v>
+        <v>1.14374347</v>
       </c>
       <c r="Q19">
-        <v>0.9509129241912279</v>
+        <v>1.14374347</v>
       </c>
       <c r="R19">
-        <v>0.9530452210381578</v>
+        <v>0.93597948</v>
       </c>
       <c r="S19">
-        <v>0.9530452210381578</v>
+        <v>0.93597948</v>
       </c>
       <c r="T19">
-        <v>1.040521181086842</v>
+        <v>1.108998536666667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.537340804210527</v>
+        <v>0.865554257671233</v>
       </c>
       <c r="D20">
-        <v>0.8055669083157895</v>
+        <v>0.4535634357534244</v>
       </c>
       <c r="E20">
-        <v>0.9594303826315791</v>
+        <v>1.831692875342466</v>
       </c>
       <c r="F20">
-        <v>1.047483905263158</v>
+        <v>1.267167810958904</v>
       </c>
       <c r="G20">
-        <v>0.7787118512052631</v>
+        <v>0.07954126379452052</v>
       </c>
       <c r="H20">
-        <v>1.114595711578947</v>
+        <v>1.078385887671232</v>
       </c>
       <c r="I20">
-        <v>0.9594303826315791</v>
+        <v>1.831692875342466</v>
       </c>
       <c r="J20">
-        <v>0.7787118512052631</v>
+        <v>0.07954126379452052</v>
       </c>
       <c r="K20">
-        <v>0.9594303826315791</v>
+        <v>1.831692875342466</v>
       </c>
       <c r="L20">
-        <v>1.114595711578947</v>
+        <v>1.078385887671232</v>
       </c>
       <c r="M20">
-        <v>0.9466537813921052</v>
+        <v>0.5789635757328764</v>
       </c>
       <c r="N20">
-        <v>0.9466537813921052</v>
+        <v>0.5789635757328764</v>
       </c>
       <c r="O20">
-        <v>0.8996248237</v>
+        <v>0.5371635290730591</v>
       </c>
       <c r="P20">
-        <v>0.9509126484719298</v>
+        <v>0.9965400089360731</v>
       </c>
       <c r="Q20">
-        <v>0.9509126484719298</v>
+        <v>0.9965400089360731</v>
       </c>
       <c r="R20">
-        <v>0.9530420820118422</v>
+        <v>1.205328225537671</v>
       </c>
       <c r="S20">
-        <v>0.9530420820118422</v>
+        <v>1.205328225537671</v>
       </c>
       <c r="T20">
-        <v>1.040521593867544</v>
+        <v>0.9293175885319634</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.3916032350935442</v>
+        <v>1.537342276842106</v>
       </c>
       <c r="D21">
-        <v>1.15140892260306</v>
+        <v>0.805558392368421</v>
       </c>
       <c r="E21">
-        <v>1.30647241442659</v>
+        <v>0.9594421115789475</v>
       </c>
       <c r="F21">
-        <v>0.9547365632262481</v>
+        <v>1.047487644736842</v>
       </c>
       <c r="G21">
-        <v>1.015944378849625</v>
+        <v>0.7787013652052629</v>
       </c>
       <c r="H21">
-        <v>0.8045724868653493</v>
+        <v>1.114595295789474</v>
       </c>
       <c r="I21">
-        <v>1.30647241442659</v>
+        <v>0.9594421115789475</v>
       </c>
       <c r="J21">
-        <v>1.015944378849625</v>
+        <v>0.7787013652052629</v>
       </c>
       <c r="K21">
-        <v>1.30647241442659</v>
+        <v>0.9594421115789475</v>
       </c>
       <c r="L21">
-        <v>0.8045724868653493</v>
+        <v>1.114595295789474</v>
       </c>
       <c r="M21">
-        <v>0.910258432857487</v>
+        <v>0.9466483304973683</v>
       </c>
       <c r="N21">
-        <v>0.910258432857487</v>
+        <v>0.9466483304973683</v>
       </c>
       <c r="O21">
-        <v>0.9906419294393446</v>
+        <v>0.8996183511210525</v>
       </c>
       <c r="P21">
-        <v>1.042329760047188</v>
+        <v>0.9509129241912281</v>
       </c>
       <c r="Q21">
-        <v>1.042329760047188</v>
+        <v>0.9509129241912279</v>
       </c>
       <c r="R21">
-        <v>1.108365423642038</v>
+        <v>0.9530452210381578</v>
       </c>
       <c r="S21">
-        <v>1.108365423642038</v>
+        <v>0.9530452210381578</v>
       </c>
       <c r="T21">
-        <v>0.937456333510736</v>
+        <v>1.040521181086842</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.103210607310078</v>
+        <v>1.537340804210527</v>
       </c>
       <c r="D22">
-        <v>1.02632792105019</v>
+        <v>0.8055669083157895</v>
       </c>
       <c r="E22">
-        <v>0.8282660897528031</v>
+        <v>0.9594303826315791</v>
       </c>
       <c r="F22">
-        <v>0.980189335457885</v>
+        <v>1.047483905263158</v>
       </c>
       <c r="G22">
-        <v>1.220618036484302</v>
+        <v>0.7787118512052631</v>
       </c>
       <c r="H22">
-        <v>1.045450183156155</v>
+        <v>1.114595711578947</v>
       </c>
       <c r="I22">
-        <v>0.8282660897528031</v>
+        <v>0.9594303826315791</v>
       </c>
       <c r="J22">
-        <v>1.220618036484302</v>
+        <v>0.7787118512052631</v>
       </c>
       <c r="K22">
-        <v>0.8282660897528031</v>
+        <v>0.9594303826315791</v>
       </c>
       <c r="L22">
-        <v>1.045450183156155</v>
+        <v>1.114595711578947</v>
       </c>
       <c r="M22">
-        <v>1.133034109820228</v>
+        <v>0.9466537813921052</v>
       </c>
       <c r="N22">
-        <v>1.133034109820228</v>
+        <v>0.9466537813921052</v>
       </c>
       <c r="O22">
-        <v>1.097465380230215</v>
+        <v>0.8996248237</v>
       </c>
       <c r="P22">
-        <v>1.031444769797753</v>
+        <v>0.9509126484719298</v>
       </c>
       <c r="Q22">
-        <v>1.031444769797753</v>
+        <v>0.9509126484719298</v>
       </c>
       <c r="R22">
-        <v>0.9806500997865156</v>
+        <v>0.9530420820118422</v>
       </c>
       <c r="S22">
-        <v>0.9806500997865156</v>
+        <v>0.9530420820118422</v>
       </c>
       <c r="T22">
-        <v>1.034010362201902</v>
+        <v>1.040521593867544</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.391590026413473</v>
+        <v>0.3916032350935442</v>
       </c>
       <c r="D23">
-        <v>1.151266502159159</v>
+        <v>1.15140892260306</v>
       </c>
       <c r="E23">
-        <v>1.306560201704678</v>
+        <v>1.30647241442659</v>
       </c>
       <c r="F23">
-        <v>0.954542229572208</v>
+        <v>0.9547365632262481</v>
       </c>
       <c r="G23">
-        <v>1.01671927385909</v>
+        <v>1.015944378849625</v>
       </c>
       <c r="H23">
-        <v>0.8043992868324136</v>
+        <v>0.8045724868653493</v>
       </c>
       <c r="I23">
-        <v>1.306560201704678</v>
+        <v>1.30647241442659</v>
       </c>
       <c r="J23">
-        <v>1.01671927385909</v>
+        <v>1.015944378849625</v>
       </c>
       <c r="K23">
-        <v>1.306560201704678</v>
+        <v>1.30647241442659</v>
       </c>
       <c r="L23">
-        <v>0.8043992868324136</v>
+        <v>0.8045724868653493</v>
       </c>
       <c r="M23">
-        <v>0.9105592803457518</v>
+        <v>0.910258432857487</v>
       </c>
       <c r="N23">
-        <v>0.9105592803457518</v>
+        <v>0.910258432857487</v>
       </c>
       <c r="O23">
-        <v>0.9907950209502209</v>
+        <v>0.9906419294393446</v>
       </c>
       <c r="P23">
-        <v>1.042559587465394</v>
+        <v>1.042329760047188</v>
       </c>
       <c r="Q23">
-        <v>1.042559587465394</v>
+        <v>1.042329760047188</v>
       </c>
       <c r="R23">
-        <v>1.108559741025215</v>
+        <v>1.108365423642038</v>
       </c>
       <c r="S23">
-        <v>1.108559741025215</v>
+        <v>1.108365423642038</v>
       </c>
       <c r="T23">
-        <v>0.9375129200901703</v>
+        <v>0.937456333510736</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.10316405772239</v>
+        <v>1.103210607310078</v>
       </c>
       <c r="D24">
-        <v>1.026463649762425</v>
+        <v>1.02632792105019</v>
       </c>
       <c r="E24">
-        <v>0.8282460588397216</v>
+        <v>0.8282660897528031</v>
       </c>
       <c r="F24">
-        <v>0.9803016238526725</v>
+        <v>0.980189335457885</v>
       </c>
       <c r="G24">
-        <v>1.220092684267637</v>
+        <v>1.220618036484302</v>
       </c>
       <c r="H24">
-        <v>1.045602827429533</v>
+        <v>1.045450183156155</v>
       </c>
       <c r="I24">
-        <v>0.8282460588397216</v>
+        <v>0.8282660897528031</v>
       </c>
       <c r="J24">
-        <v>1.220092684267637</v>
+        <v>1.220618036484302</v>
       </c>
       <c r="K24">
-        <v>0.8282460588397216</v>
+        <v>0.8282660897528031</v>
       </c>
       <c r="L24">
-        <v>1.045602827429533</v>
+        <v>1.045450183156155</v>
       </c>
       <c r="M24">
-        <v>1.132847755848585</v>
+        <v>1.133034109820228</v>
       </c>
       <c r="N24">
-        <v>1.132847755848585</v>
+        <v>1.133034109820228</v>
       </c>
       <c r="O24">
-        <v>1.097386387153199</v>
+        <v>1.097465380230215</v>
       </c>
       <c r="P24">
-        <v>1.031313856845631</v>
+        <v>1.031444769797753</v>
       </c>
       <c r="Q24">
-        <v>1.031313856845631</v>
+        <v>1.031444769797753</v>
       </c>
       <c r="R24">
-        <v>0.9805469073441535</v>
+        <v>0.9806500997865156</v>
       </c>
       <c r="S24">
-        <v>0.9805469073441535</v>
+        <v>0.9806500997865156</v>
       </c>
       <c r="T24">
-        <v>1.03397848364573</v>
+        <v>1.034010362201902</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.3915946401868134</v>
+        <v>0.391590026413473</v>
       </c>
       <c r="D25">
-        <v>1.151429390143762</v>
+        <v>1.151266502159159</v>
       </c>
       <c r="E25">
-        <v>1.30644912236038</v>
+        <v>1.306560201704678</v>
       </c>
       <c r="F25">
-        <v>0.9547262671127096</v>
+        <v>0.954542229572208</v>
       </c>
       <c r="G25">
-        <v>1.015990237598866</v>
+        <v>1.01671927385909</v>
       </c>
       <c r="H25">
-        <v>0.8045677907577001</v>
+        <v>0.8043992868324136</v>
       </c>
       <c r="I25">
-        <v>1.30644912236038</v>
+        <v>1.306560201704678</v>
       </c>
       <c r="J25">
-        <v>1.015990237598866</v>
+        <v>1.01671927385909</v>
       </c>
       <c r="K25">
-        <v>1.30644912236038</v>
+        <v>1.306560201704678</v>
       </c>
       <c r="L25">
-        <v>0.8045677907577001</v>
+        <v>0.8043992868324136</v>
       </c>
       <c r="M25">
-        <v>0.9102790141782828</v>
+        <v>0.9105592803457518</v>
       </c>
       <c r="N25">
-        <v>0.9102790141782828</v>
+        <v>0.9105592803457518</v>
       </c>
       <c r="O25">
-        <v>0.9906624728334426</v>
+        <v>0.9907950209502209</v>
       </c>
       <c r="P25">
-        <v>1.042335716905649</v>
+        <v>1.042559587465394</v>
       </c>
       <c r="Q25">
-        <v>1.042335716905649</v>
+        <v>1.042559587465394</v>
       </c>
       <c r="R25">
-        <v>1.108364068269331</v>
+        <v>1.108559741025215</v>
       </c>
       <c r="S25">
-        <v>1.108364068269331</v>
+        <v>1.108559741025215</v>
       </c>
       <c r="T25">
-        <v>0.9374595746933719</v>
+        <v>0.9375129200901703</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.103196887568546</v>
+        <v>1.10316405772239</v>
       </c>
       <c r="D26">
-        <v>1.026333099529684</v>
+        <v>1.026463649762425</v>
       </c>
       <c r="E26">
-        <v>0.8282693865191765</v>
+        <v>0.8282460588397216</v>
       </c>
       <c r="F26">
-        <v>0.9801875238743869</v>
+        <v>0.9803016238526725</v>
       </c>
       <c r="G26">
-        <v>1.220624276039493</v>
+        <v>1.220092684267637</v>
       </c>
       <c r="H26">
-        <v>1.04544632946447</v>
+        <v>1.045602827429533</v>
       </c>
       <c r="I26">
-        <v>0.8282693865191765</v>
+        <v>0.8282460588397216</v>
       </c>
       <c r="J26">
-        <v>1.220624276039493</v>
+        <v>1.220092684267637</v>
       </c>
       <c r="K26">
-        <v>0.8282693865191765</v>
+        <v>0.8282460588397216</v>
       </c>
       <c r="L26">
-        <v>1.04544632946447</v>
+        <v>1.045602827429533</v>
       </c>
       <c r="M26">
-        <v>1.133035302751981</v>
+        <v>1.132847755848585</v>
       </c>
       <c r="N26">
-        <v>1.133035302751981</v>
+        <v>1.132847755848585</v>
       </c>
       <c r="O26">
-        <v>1.097467901677882</v>
+        <v>1.097386387153199</v>
       </c>
       <c r="P26">
-        <v>1.031446664007713</v>
+        <v>1.031313856845631</v>
       </c>
       <c r="Q26">
-        <v>1.031446664007713</v>
+        <v>1.031313856845631</v>
       </c>
       <c r="R26">
-        <v>0.9806523446355789</v>
+        <v>0.9805469073441535</v>
       </c>
       <c r="S26">
-        <v>0.9806523446355789</v>
+        <v>0.9805469073441535</v>
       </c>
       <c r="T26">
-        <v>1.034009583832626</v>
+        <v>1.03397848364573</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.138377561473773</v>
+        <v>0.3915946401868134</v>
       </c>
       <c r="D27">
-        <v>0.9738717035408081</v>
+        <v>1.151429390143762</v>
       </c>
       <c r="E27">
-        <v>1.033029161572137</v>
+        <v>1.30644912236038</v>
       </c>
       <c r="F27">
-        <v>1.004864373787684</v>
+        <v>0.9547262671127096</v>
       </c>
       <c r="G27">
-        <v>0.6904649797693797</v>
+        <v>1.015990237598866</v>
       </c>
       <c r="H27">
-        <v>1.00895962121752</v>
+        <v>0.8045677907577001</v>
       </c>
       <c r="I27">
-        <v>1.033029161572137</v>
+        <v>1.30644912236038</v>
       </c>
       <c r="J27">
-        <v>0.6904649797693797</v>
+        <v>1.015990237598866</v>
       </c>
       <c r="K27">
-        <v>1.033029161572137</v>
+        <v>1.30644912236038</v>
       </c>
       <c r="L27">
-        <v>1.00895962121752</v>
+        <v>0.8045677907577001</v>
       </c>
       <c r="M27">
-        <v>0.8497123004934499</v>
+        <v>0.9102790141782828</v>
       </c>
       <c r="N27">
-        <v>0.8497123004934499</v>
+        <v>0.9102790141782828</v>
       </c>
       <c r="O27">
-        <v>0.8910987681759027</v>
+        <v>0.9906624728334426</v>
       </c>
       <c r="P27">
-        <v>0.9108179208530124</v>
+        <v>1.042335716905649</v>
       </c>
       <c r="Q27">
-        <v>0.9108179208530124</v>
+        <v>1.042335716905649</v>
       </c>
       <c r="R27">
-        <v>0.9413707310327937</v>
+        <v>1.108364068269331</v>
       </c>
       <c r="S27">
-        <v>0.9413707310327937</v>
+        <v>1.108364068269331</v>
       </c>
       <c r="T27">
-        <v>0.9749279002268838</v>
+        <v>0.9374595746933719</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.8020828575950799</v>
+        <v>1.103196887568546</v>
       </c>
       <c r="D28">
-        <v>0.9602748206707215</v>
+        <v>1.026333099529684</v>
       </c>
       <c r="E28">
-        <v>1.111271694413187</v>
+        <v>0.8282693865191765</v>
       </c>
       <c r="F28">
-        <v>1.027227886437342</v>
+        <v>0.9801875238743869</v>
       </c>
       <c r="G28">
-        <v>1.018085589983899</v>
+        <v>1.220624276039493</v>
       </c>
       <c r="H28">
-        <v>0.9914527126973047</v>
+        <v>1.04544632946447</v>
       </c>
       <c r="I28">
-        <v>1.111271694413187</v>
+        <v>0.8282693865191765</v>
       </c>
       <c r="J28">
-        <v>1.018085589983899</v>
+        <v>1.220624276039493</v>
       </c>
       <c r="K28">
-        <v>1.111271694413187</v>
+        <v>0.8282693865191765</v>
       </c>
       <c r="L28">
-        <v>0.9914527126973047</v>
+        <v>1.04544632946447</v>
       </c>
       <c r="M28">
-        <v>1.004769151340602</v>
+        <v>1.133035302751981</v>
       </c>
       <c r="N28">
-        <v>1.004769151340602</v>
+        <v>1.133035302751981</v>
       </c>
       <c r="O28">
-        <v>0.9899377077839752</v>
+        <v>1.097467901677882</v>
       </c>
       <c r="P28">
-        <v>1.040269999031464</v>
+        <v>1.031446664007713</v>
       </c>
       <c r="Q28">
-        <v>1.040269999031464</v>
+        <v>1.031446664007713</v>
       </c>
       <c r="R28">
-        <v>1.058020422876895</v>
+        <v>0.9806523446355789</v>
       </c>
       <c r="S28">
-        <v>1.058020422876895</v>
+        <v>0.9806523446355789</v>
       </c>
       <c r="T28">
-        <v>0.9850659269662558</v>
+        <v>1.034009583832626</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.138377561473773</v>
+      </c>
+      <c r="D29">
+        <v>0.9738717035408081</v>
+      </c>
+      <c r="E29">
+        <v>1.033029161572137</v>
+      </c>
+      <c r="F29">
+        <v>1.004864373787684</v>
+      </c>
+      <c r="G29">
+        <v>0.6904649797693797</v>
+      </c>
+      <c r="H29">
+        <v>1.00895962121752</v>
+      </c>
+      <c r="I29">
+        <v>1.033029161572137</v>
+      </c>
+      <c r="J29">
+        <v>0.6904649797693797</v>
+      </c>
+      <c r="K29">
+        <v>1.033029161572137</v>
+      </c>
+      <c r="L29">
+        <v>1.00895962121752</v>
+      </c>
+      <c r="M29">
+        <v>0.8497123004934499</v>
+      </c>
+      <c r="N29">
+        <v>0.8497123004934499</v>
+      </c>
+      <c r="O29">
+        <v>0.8910987681759027</v>
+      </c>
+      <c r="P29">
+        <v>0.9108179208530124</v>
+      </c>
+      <c r="Q29">
+        <v>0.9108179208530124</v>
+      </c>
+      <c r="R29">
+        <v>0.9413707310327937</v>
+      </c>
+      <c r="S29">
+        <v>0.9413707310327937</v>
+      </c>
+      <c r="T29">
+        <v>0.9749279002268838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8020828575950799</v>
+      </c>
+      <c r="D30">
+        <v>0.9602748206707215</v>
+      </c>
+      <c r="E30">
+        <v>1.111271694413187</v>
+      </c>
+      <c r="F30">
+        <v>1.027227886437342</v>
+      </c>
+      <c r="G30">
+        <v>1.018085589983899</v>
+      </c>
+      <c r="H30">
+        <v>0.9914527126973047</v>
+      </c>
+      <c r="I30">
+        <v>1.111271694413187</v>
+      </c>
+      <c r="J30">
+        <v>1.018085589983899</v>
+      </c>
+      <c r="K30">
+        <v>1.111271694413187</v>
+      </c>
+      <c r="L30">
+        <v>0.9914527126973047</v>
+      </c>
+      <c r="M30">
+        <v>1.004769151340602</v>
+      </c>
+      <c r="N30">
+        <v>1.004769151340602</v>
+      </c>
+      <c r="O30">
+        <v>0.9899377077839752</v>
+      </c>
+      <c r="P30">
+        <v>1.040269999031464</v>
+      </c>
+      <c r="Q30">
+        <v>1.040269999031464</v>
+      </c>
+      <c r="R30">
+        <v>1.058020422876895</v>
+      </c>
+      <c r="S30">
+        <v>1.058020422876895</v>
+      </c>
+      <c r="T30">
+        <v>0.9850659269662558</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.500377083675376</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.175019860829085</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.045349206587197</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9289998927354833</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.349484257491407</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.8919710391386702</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.045349206587197</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.349484257491407</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.045349206587197</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.8919710391386702</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.120727648315038</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.120727648315038</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.138825052486387</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.095601501072425</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.095601501072425</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.083038427451118</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.083038427451118</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9818668900762031</v>
       </c>
     </row>
